--- a/.tests/PruebasIniciales.xlsx
+++ b/.tests/PruebasIniciales.xlsx
@@ -562,7 +562,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -600,6 +600,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Fira Code"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -744,7 +750,7 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
@@ -756,22 +762,22 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
@@ -798,7 +804,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -816,7 +822,7 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
@@ -831,7 +837,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
@@ -33766,7 +33772,7 @@
     <col min="2" max="2" style="6" width="51.86214285714286" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="23.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="6" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="28" width="19.862142857142857" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="6" width="10.290714285714287" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="6" width="9.005" customWidth="1" bestFit="1"/>
@@ -33789,7 +33795,7 @@
     <col min="25" max="25" style="37" width="2.7192857142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
       <c r="A1" s="29"/>
       <c r="B1" s="8" t="s">
         <v>71</v>
@@ -33798,7 +33804,7 @@
         <v>126</v>
       </c>
       <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -33822,7 +33828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
       <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
@@ -33855,14 +33861,14 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="26.25">
       <c r="A3" s="31"/>
       <c r="B3" s="32"/>
       <c r="C3" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="E3" s="38"/>
       <c r="F3" s="15" t="s">
         <v>11</v>
       </c>
@@ -33890,7 +33896,7 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
       <c r="A4" s="34" t="s">
         <v>74</v>
       </c>
@@ -33903,7 +33909,7 @@
       <c r="D4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="39" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="21" t="s">
@@ -33945,7 +33951,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
       <c r="A5" s="24">
         <v>1</v>
       </c>
@@ -33954,7 +33960,7 @@
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -33976,12 +33982,12 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
       <c r="A6" s="26"/>
       <c r="B6" s="33"/>
       <c r="C6" s="25"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -34003,7 +34009,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
       <c r="A7" s="26">
         <v>2</v>
       </c>
@@ -34012,7 +34018,7 @@
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -34034,12 +34040,12 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
       <c r="A8" s="26"/>
       <c r="B8" s="33"/>
       <c r="C8" s="25"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -34061,7 +34067,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
       <c r="A9" s="26">
         <v>3</v>
       </c>
@@ -34070,7 +34076,7 @@
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -34092,12 +34098,12 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
       <c r="A10" s="26"/>
       <c r="B10" s="33"/>
       <c r="C10" s="25"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -34119,7 +34125,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
       <c r="A11" s="26">
         <v>4</v>
       </c>
@@ -34128,7 +34134,7 @@
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -34150,12 +34156,12 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
       <c r="A12" s="26"/>
       <c r="B12" s="33"/>
       <c r="C12" s="25"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -34177,7 +34183,7 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21">
       <c r="A13" s="26">
         <v>5</v>
       </c>
@@ -34186,7 +34192,7 @@
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -34208,12 +34214,12 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21">
       <c r="A14" s="26"/>
       <c r="B14" s="33"/>
       <c r="C14" s="25"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -34235,7 +34241,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21">
       <c r="A15" s="26">
         <v>6</v>
       </c>
@@ -34244,7 +34250,7 @@
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -34266,12 +34272,12 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21">
       <c r="A16" s="26"/>
       <c r="B16" s="33"/>
       <c r="C16" s="25"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -34293,7 +34299,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21">
       <c r="A17" s="26">
         <v>7</v>
       </c>
@@ -34302,7 +34308,7 @@
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -34324,12 +34330,12 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21">
       <c r="A18" s="26"/>
       <c r="B18" s="33"/>
       <c r="C18" s="25"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -34351,7 +34357,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21">
       <c r="A19" s="26">
         <v>8</v>
       </c>
@@ -34360,7 +34366,7 @@
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -34382,12 +34388,12 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21">
       <c r="A20" s="26"/>
       <c r="B20" s="33"/>
       <c r="C20" s="25"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -34409,7 +34415,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21">
       <c r="A21" s="26">
         <v>9</v>
       </c>
@@ -34418,7 +34424,7 @@
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="27"/>
-      <c r="E21" s="8"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -34440,12 +34446,12 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="21">
       <c r="A22" s="26"/>
       <c r="B22" s="33"/>
       <c r="C22" s="25"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="E22" s="10"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -34467,7 +34473,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="21">
       <c r="A23" s="26">
         <v>10</v>
       </c>
@@ -34476,7 +34482,7 @@
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -34498,12 +34504,12 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="21">
       <c r="A24" s="26"/>
       <c r="B24" s="33"/>
       <c r="C24" s="25"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="E24" s="10"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -34525,7 +34531,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="21">
       <c r="A25" s="24">
         <f>IF(A5:A24="","",A5:A24+10)</f>
       </c>
@@ -34534,7 +34540,7 @@
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -34556,12 +34562,12 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="21">
       <c r="A26" s="26"/>
       <c r="B26" s="33"/>
       <c r="C26" s="25"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="E26" s="10"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -34592,7 +34598,7 @@
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="E27" s="10"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -34619,7 +34625,7 @@
       <c r="B28" s="33"/>
       <c r="C28" s="25"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -34650,7 +34656,7 @@
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="E29" s="10"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
@@ -34677,7 +34683,7 @@
       <c r="B30" s="33"/>
       <c r="C30" s="25"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="E30" s="10"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -34708,7 +34714,7 @@
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="10"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -34735,7 +34741,7 @@
       <c r="B32" s="33"/>
       <c r="C32" s="25"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="10"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -34766,7 +34772,7 @@
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="10"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -34793,7 +34799,7 @@
       <c r="B34" s="33"/>
       <c r="C34" s="25"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="10"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -34824,7 +34830,7 @@
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="10"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
@@ -34851,7 +34857,7 @@
       <c r="B36" s="33"/>
       <c r="C36" s="25"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="10"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -34882,7 +34888,7 @@
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="10"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -34909,7 +34915,7 @@
       <c r="B38" s="33"/>
       <c r="C38" s="25"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="E38" s="10"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -34940,7 +34946,7 @@
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
+      <c r="E39" s="10"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -34967,7 +34973,7 @@
       <c r="B40" s="33"/>
       <c r="C40" s="25"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="E40" s="10"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -34998,7 +35004,7 @@
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
+      <c r="E41" s="10"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -35025,7 +35031,7 @@
       <c r="B42" s="33"/>
       <c r="C42" s="25"/>
       <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="E42" s="10"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
@@ -35056,7 +35062,7 @@
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
+      <c r="E43" s="10"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -35083,7 +35089,7 @@
       <c r="B44" s="33"/>
       <c r="C44" s="25"/>
       <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
+      <c r="E44" s="10"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -35114,7 +35120,7 @@
       </c>
       <c r="C45" s="25"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
+      <c r="E45" s="10"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
@@ -35141,7 +35147,7 @@
       <c r="B46" s="33"/>
       <c r="C46" s="25"/>
       <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
+      <c r="E46" s="10"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -35172,7 +35178,7 @@
       </c>
       <c r="C47" s="25"/>
       <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
+      <c r="E47" s="10"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
@@ -35199,7 +35205,7 @@
       <c r="B48" s="33"/>
       <c r="C48" s="25"/>
       <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
+      <c r="E48" s="10"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
@@ -35230,7 +35236,7 @@
       </c>
       <c r="C49" s="25"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
+      <c r="E49" s="10"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
@@ -35257,7 +35263,7 @@
       <c r="B50" s="33"/>
       <c r="C50" s="25"/>
       <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
+      <c r="E50" s="10"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
@@ -35288,7 +35294,7 @@
       </c>
       <c r="C51" s="25"/>
       <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
+      <c r="E51" s="10"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
@@ -35315,7 +35321,7 @@
       <c r="B52" s="33"/>
       <c r="C52" s="25"/>
       <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
+      <c r="E52" s="10"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
@@ -35346,7 +35352,7 @@
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
+      <c r="E53" s="10"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
@@ -35373,7 +35379,7 @@
       <c r="B54" s="33"/>
       <c r="C54" s="25"/>
       <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
+      <c r="E54" s="10"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
@@ -35404,7 +35410,7 @@
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
+      <c r="E55" s="10"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
@@ -35431,7 +35437,7 @@
       <c r="B56" s="33"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
+      <c r="E56" s="10"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
@@ -35462,7 +35468,7 @@
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
+      <c r="E57" s="10"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
@@ -35489,7 +35495,7 @@
       <c r="B58" s="33"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
+      <c r="E58" s="10"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
@@ -35520,7 +35526,7 @@
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
+      <c r="E59" s="10"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
@@ -35547,7 +35553,7 @@
       <c r="B60" s="33"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
+      <c r="E60" s="10"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
@@ -35578,7 +35584,7 @@
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
+      <c r="E61" s="10"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
@@ -35605,7 +35611,7 @@
       <c r="B62" s="33"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
+      <c r="E62" s="10"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
@@ -35636,7 +35642,7 @@
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
+      <c r="E63" s="10"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
@@ -35663,7 +35669,7 @@
       <c r="B64" s="33"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
+      <c r="E64" s="10"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
@@ -35694,7 +35700,7 @@
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
+      <c r="E65" s="10"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
@@ -35721,7 +35727,7 @@
       <c r="B66" s="33"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
+      <c r="E66" s="10"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
@@ -35752,7 +35758,7 @@
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
+      <c r="E67" s="10"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
@@ -35779,7 +35785,7 @@
       <c r="B68" s="33"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
+      <c r="E68" s="10"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
@@ -35810,7 +35816,7 @@
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
+      <c r="E69" s="10"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
@@ -35837,7 +35843,7 @@
       <c r="B70" s="33"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
+      <c r="E70" s="10"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
@@ -35868,7 +35874,7 @@
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
+      <c r="E71" s="10"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
@@ -35895,7 +35901,7 @@
       <c r="B72" s="33"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
+      <c r="E72" s="10"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
@@ -35926,7 +35932,7 @@
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
+      <c r="E73" s="10"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
@@ -35953,7 +35959,7 @@
       <c r="B74" s="33"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
+      <c r="E74" s="10"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
@@ -35984,7 +35990,7 @@
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
+      <c r="E75" s="10"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
@@ -36011,7 +36017,7 @@
       <c r="B76" s="33"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
+      <c r="E76" s="10"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
@@ -36042,7 +36048,7 @@
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
+      <c r="E77" s="10"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
@@ -36069,7 +36075,7 @@
       <c r="B78" s="33"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
+      <c r="E78" s="10"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
@@ -36100,7 +36106,7 @@
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
+      <c r="E79" s="10"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
@@ -36127,7 +36133,7 @@
       <c r="B80" s="33"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
+      <c r="E80" s="10"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
@@ -36158,7 +36164,7 @@
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
+      <c r="E81" s="10"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
@@ -36185,7 +36191,7 @@
       <c r="B82" s="33"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
+      <c r="E82" s="10"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
@@ -36216,7 +36222,7 @@
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
+      <c r="E83" s="10"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
@@ -36243,7 +36249,7 @@
       <c r="B84" s="33"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
+      <c r="E84" s="10"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
@@ -36274,7 +36280,7 @@
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
+      <c r="E85" s="10"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
@@ -36301,7 +36307,7 @@
       <c r="B86" s="33"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
+      <c r="E86" s="10"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
@@ -36332,7 +36338,7 @@
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
+      <c r="E87" s="10"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
@@ -36359,7 +36365,7 @@
       <c r="B88" s="33"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
+      <c r="E88" s="10"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
@@ -36390,7 +36396,7 @@
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
+      <c r="E89" s="10"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
@@ -36417,7 +36423,7 @@
       <c r="B90" s="33"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
+      <c r="E90" s="10"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
@@ -36448,7 +36454,7 @@
       </c>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
+      <c r="E91" s="10"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
@@ -36475,7 +36481,7 @@
       <c r="B92" s="33"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
+      <c r="E92" s="10"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
@@ -36506,7 +36512,7 @@
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
+      <c r="E93" s="10"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
@@ -36533,7 +36539,7 @@
       <c r="B94" s="33"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
+      <c r="E94" s="10"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
@@ -36564,7 +36570,7 @@
       </c>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
+      <c r="E95" s="10"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
@@ -36591,7 +36597,7 @@
       <c r="B96" s="33"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
+      <c r="E96" s="10"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
@@ -36622,7 +36628,7 @@
       </c>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
+      <c r="E97" s="10"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
@@ -36649,7 +36655,7 @@
       <c r="B98" s="33"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
+      <c r="E98" s="10"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
@@ -36680,7 +36686,7 @@
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
+      <c r="E99" s="10"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
@@ -36707,7 +36713,7 @@
       <c r="B100" s="33"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
+      <c r="E100" s="10"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
@@ -36738,7 +36744,7 @@
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
+      <c r="E101" s="10"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
@@ -36765,7 +36771,7 @@
       <c r="B102" s="33"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
+      <c r="E102" s="10"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
@@ -36796,7 +36802,7 @@
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
+      <c r="E103" s="10"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
@@ -36823,7 +36829,7 @@
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
+      <c r="E104" s="10"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
@@ -36850,7 +36856,7 @@
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
+      <c r="E105" s="10"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
@@ -36877,7 +36883,7 @@
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
+      <c r="E106" s="10"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
@@ -36904,7 +36910,7 @@
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
+      <c r="E107" s="10"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
@@ -36931,7 +36937,7 @@
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
+      <c r="E108" s="10"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
@@ -36958,7 +36964,7 @@
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
+      <c r="E109" s="10"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
@@ -36985,7 +36991,7 @@
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
+      <c r="E110" s="10"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c r="H110" s="8"/>
@@ -37012,7 +37018,7 @@
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
+      <c r="E111" s="10"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
@@ -37039,7 +37045,7 @@
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
+      <c r="E112" s="10"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
@@ -37066,7 +37072,7 @@
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
+      <c r="E113" s="10"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c r="H113" s="8"/>
@@ -37093,7 +37099,7 @@
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
+      <c r="E114" s="10"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c r="H114" s="8"/>
@@ -37120,7 +37126,7 @@
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
+      <c r="E115" s="10"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c r="H115" s="8"/>
@@ -37147,7 +37153,7 @@
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
+      <c r="E116" s="10"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c r="H116" s="8"/>
@@ -37174,7 +37180,7 @@
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
+      <c r="E117" s="10"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c r="H117" s="8"/>
@@ -37201,7 +37207,7 @@
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
+      <c r="E118" s="10"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
@@ -37228,7 +37234,7 @@
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
+      <c r="E119" s="10"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c r="H119" s="8"/>
@@ -37255,7 +37261,7 @@
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
+      <c r="E120" s="10"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c r="H120" s="8"/>
@@ -37282,7 +37288,7 @@
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
+      <c r="E121" s="10"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c r="H121" s="8"/>
@@ -37309,7 +37315,7 @@
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
+      <c r="E122" s="10"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c r="H122" s="8"/>
@@ -37336,7 +37342,7 @@
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
+      <c r="E123" s="10"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c r="H123" s="8"/>
@@ -37363,7 +37369,7 @@
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
+      <c r="E124" s="10"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
@@ -37390,7 +37396,7 @@
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
+      <c r="E125" s="10"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
@@ -37417,7 +37423,7 @@
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
+      <c r="E126" s="10"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
@@ -37444,7 +37450,7 @@
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
+      <c r="E127" s="10"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
@@ -37471,7 +37477,7 @@
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
+      <c r="E128" s="10"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c r="H128" s="8"/>
@@ -37498,7 +37504,7 @@
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
+      <c r="E129" s="10"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c r="H129" s="8"/>
@@ -37525,7 +37531,7 @@
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
+      <c r="E130" s="10"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c r="H130" s="8"/>
@@ -37552,7 +37558,7 @@
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
+      <c r="E131" s="10"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c r="H131" s="8"/>
@@ -37579,7 +37585,7 @@
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
+      <c r="E132" s="10"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c r="H132" s="8"/>
@@ -37606,7 +37612,7 @@
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
+      <c r="E133" s="10"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
@@ -37633,7 +37639,7 @@
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
+      <c r="E134" s="10"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
@@ -37660,7 +37666,7 @@
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
-      <c r="E135" s="8"/>
+      <c r="E135" s="10"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
@@ -37687,7 +37693,7 @@
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
+      <c r="E136" s="10"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
@@ -37714,7 +37720,7 @@
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
+      <c r="E137" s="10"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
@@ -37741,7 +37747,7 @@
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
-      <c r="E138" s="8"/>
+      <c r="E138" s="10"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c r="H138" s="8"/>
@@ -37768,7 +37774,7 @@
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
+      <c r="E139" s="10"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
@@ -37795,7 +37801,7 @@
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
+      <c r="E140" s="10"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c r="H140" s="8"/>
@@ -37822,7 +37828,7 @@
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
+      <c r="E141" s="10"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c r="H141" s="8"/>
@@ -37849,7 +37855,7 @@
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
+      <c r="E142" s="10"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c r="H142" s="8"/>
@@ -37876,7 +37882,7 @@
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
+      <c r="E143" s="10"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
@@ -37903,7 +37909,7 @@
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
-      <c r="E144" s="8"/>
+      <c r="E144" s="10"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c r="H144" s="8"/>
@@ -37930,7 +37936,7 @@
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
-      <c r="E145" s="8"/>
+      <c r="E145" s="10"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c r="H145" s="8"/>
@@ -37957,7 +37963,7 @@
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
-      <c r="E146" s="8"/>
+      <c r="E146" s="10"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c r="H146" s="8"/>
@@ -37984,7 +37990,7 @@
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
-      <c r="E147" s="8"/>
+      <c r="E147" s="10"/>
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
@@ -38011,7 +38017,7 @@
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
-      <c r="E148" s="8"/>
+      <c r="E148" s="10"/>
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
       <c r="H148" s="8"/>
@@ -38038,7 +38044,7 @@
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
-      <c r="E149" s="8"/>
+      <c r="E149" s="10"/>
       <c r="F149" s="8"/>
       <c r="G149" s="8"/>
       <c r="H149" s="8"/>
@@ -38065,7 +38071,7 @@
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
-      <c r="E150" s="8"/>
+      <c r="E150" s="10"/>
       <c r="F150" s="8"/>
       <c r="G150" s="8"/>
       <c r="H150" s="8"/>
@@ -38092,7 +38098,7 @@
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
-      <c r="E151" s="8"/>
+      <c r="E151" s="10"/>
       <c r="F151" s="8"/>
       <c r="G151" s="8"/>
       <c r="H151" s="8"/>
@@ -38119,7 +38125,7 @@
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
-      <c r="E152" s="8"/>
+      <c r="E152" s="10"/>
       <c r="F152" s="8"/>
       <c r="G152" s="8"/>
       <c r="H152" s="8"/>
@@ -38146,7 +38152,7 @@
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
-      <c r="E153" s="8"/>
+      <c r="E153" s="10"/>
       <c r="F153" s="8"/>
       <c r="G153" s="8"/>
       <c r="H153" s="8"/>
@@ -38173,7 +38179,7 @@
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
-      <c r="E154" s="8"/>
+      <c r="E154" s="10"/>
       <c r="F154" s="8"/>
       <c r="G154" s="8"/>
       <c r="H154" s="8"/>
@@ -38200,7 +38206,7 @@
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
-      <c r="E155" s="8"/>
+      <c r="E155" s="10"/>
       <c r="F155" s="8"/>
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
@@ -38227,7 +38233,7 @@
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
-      <c r="E156" s="8"/>
+      <c r="E156" s="10"/>
       <c r="F156" s="8"/>
       <c r="G156" s="8"/>
       <c r="H156" s="8"/>
@@ -38254,7 +38260,7 @@
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
-      <c r="E157" s="8"/>
+      <c r="E157" s="10"/>
       <c r="F157" s="8"/>
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
@@ -38281,7 +38287,7 @@
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
-      <c r="E158" s="8"/>
+      <c r="E158" s="10"/>
       <c r="F158" s="8"/>
       <c r="G158" s="8"/>
       <c r="H158" s="8"/>
@@ -38308,7 +38314,7 @@
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
+      <c r="E159" s="10"/>
       <c r="F159" s="8"/>
       <c r="G159" s="8"/>
       <c r="H159" s="8"/>
@@ -38335,7 +38341,7 @@
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
+      <c r="E160" s="10"/>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
@@ -38362,7 +38368,7 @@
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
-      <c r="E161" s="8"/>
+      <c r="E161" s="10"/>
       <c r="F161" s="8"/>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
@@ -38389,7 +38395,7 @@
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
+      <c r="E162" s="10"/>
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
@@ -38416,7 +38422,7 @@
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
-      <c r="E163" s="8"/>
+      <c r="E163" s="10"/>
       <c r="F163" s="8"/>
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>
@@ -38443,7 +38449,7 @@
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
-      <c r="E164" s="8"/>
+      <c r="E164" s="10"/>
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
       <c r="H164" s="8"/>
@@ -38470,7 +38476,7 @@
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
       <c r="D165" s="8"/>
-      <c r="E165" s="8"/>
+      <c r="E165" s="10"/>
       <c r="F165" s="8"/>
       <c r="G165" s="8"/>
       <c r="H165" s="8"/>
@@ -38497,7 +38503,7 @@
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
-      <c r="E166" s="8"/>
+      <c r="E166" s="10"/>
       <c r="F166" s="8"/>
       <c r="G166" s="8"/>
       <c r="H166" s="8"/>
@@ -38524,7 +38530,7 @@
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
-      <c r="E167" s="8"/>
+      <c r="E167" s="10"/>
       <c r="F167" s="8"/>
       <c r="G167" s="8"/>
       <c r="H167" s="8"/>
@@ -38551,7 +38557,7 @@
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
       <c r="D168" s="8"/>
-      <c r="E168" s="8"/>
+      <c r="E168" s="10"/>
       <c r="F168" s="8"/>
       <c r="G168" s="8"/>
       <c r="H168" s="8"/>
@@ -38578,7 +38584,7 @@
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
       <c r="D169" s="8"/>
-      <c r="E169" s="8"/>
+      <c r="E169" s="10"/>
       <c r="F169" s="8"/>
       <c r="G169" s="8"/>
       <c r="H169" s="8"/>
@@ -38605,7 +38611,7 @@
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
       <c r="D170" s="8"/>
-      <c r="E170" s="8"/>
+      <c r="E170" s="10"/>
       <c r="F170" s="8"/>
       <c r="G170" s="8"/>
       <c r="H170" s="8"/>
@@ -38632,7 +38638,7 @@
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
       <c r="D171" s="8"/>
-      <c r="E171" s="8"/>
+      <c r="E171" s="10"/>
       <c r="F171" s="8"/>
       <c r="G171" s="8"/>
       <c r="H171" s="8"/>
@@ -38659,7 +38665,7 @@
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
       <c r="D172" s="8"/>
-      <c r="E172" s="8"/>
+      <c r="E172" s="10"/>
       <c r="F172" s="8"/>
       <c r="G172" s="8"/>
       <c r="H172" s="8"/>
@@ -38686,7 +38692,7 @@
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
       <c r="D173" s="8"/>
-      <c r="E173" s="8"/>
+      <c r="E173" s="10"/>
       <c r="F173" s="8"/>
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
@@ -38713,7 +38719,7 @@
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
       <c r="D174" s="8"/>
-      <c r="E174" s="8"/>
+      <c r="E174" s="10"/>
       <c r="F174" s="8"/>
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
@@ -38740,7 +38746,7 @@
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
       <c r="D175" s="8"/>
-      <c r="E175" s="8"/>
+      <c r="E175" s="10"/>
       <c r="F175" s="8"/>
       <c r="G175" s="8"/>
       <c r="H175" s="8"/>
@@ -38767,7 +38773,7 @@
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
       <c r="D176" s="8"/>
-      <c r="E176" s="8"/>
+      <c r="E176" s="10"/>
       <c r="F176" s="8"/>
       <c r="G176" s="8"/>
       <c r="H176" s="8"/>
@@ -38794,7 +38800,7 @@
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
       <c r="D177" s="8"/>
-      <c r="E177" s="8"/>
+      <c r="E177" s="10"/>
       <c r="F177" s="8"/>
       <c r="G177" s="8"/>
       <c r="H177" s="8"/>
@@ -38821,7 +38827,7 @@
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
       <c r="D178" s="8"/>
-      <c r="E178" s="8"/>
+      <c r="E178" s="10"/>
       <c r="F178" s="8"/>
       <c r="G178" s="8"/>
       <c r="H178" s="8"/>
@@ -38848,7 +38854,7 @@
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
       <c r="D179" s="8"/>
-      <c r="E179" s="8"/>
+      <c r="E179" s="10"/>
       <c r="F179" s="8"/>
       <c r="G179" s="8"/>
       <c r="H179" s="8"/>
@@ -38875,7 +38881,7 @@
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
       <c r="D180" s="8"/>
-      <c r="E180" s="8"/>
+      <c r="E180" s="10"/>
       <c r="F180" s="8"/>
       <c r="G180" s="8"/>
       <c r="H180" s="8"/>
@@ -38902,7 +38908,7 @@
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
       <c r="D181" s="8"/>
-      <c r="E181" s="8"/>
+      <c r="E181" s="10"/>
       <c r="F181" s="8"/>
       <c r="G181" s="8"/>
       <c r="H181" s="8"/>
@@ -38929,7 +38935,7 @@
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
       <c r="D182" s="8"/>
-      <c r="E182" s="8"/>
+      <c r="E182" s="10"/>
       <c r="F182" s="8"/>
       <c r="G182" s="8"/>
       <c r="H182" s="8"/>
@@ -38956,7 +38962,7 @@
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
       <c r="D183" s="8"/>
-      <c r="E183" s="8"/>
+      <c r="E183" s="10"/>
       <c r="F183" s="8"/>
       <c r="G183" s="8"/>
       <c r="H183" s="8"/>
@@ -38983,7 +38989,7 @@
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
       <c r="D184" s="8"/>
-      <c r="E184" s="8"/>
+      <c r="E184" s="10"/>
       <c r="F184" s="8"/>
       <c r="G184" s="8"/>
       <c r="H184" s="8"/>
@@ -39010,7 +39016,7 @@
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
       <c r="D185" s="8"/>
-      <c r="E185" s="8"/>
+      <c r="E185" s="10"/>
       <c r="F185" s="8"/>
       <c r="G185" s="8"/>
       <c r="H185" s="8"/>
@@ -39037,7 +39043,7 @@
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
       <c r="D186" s="8"/>
-      <c r="E186" s="8"/>
+      <c r="E186" s="10"/>
       <c r="F186" s="8"/>
       <c r="G186" s="8"/>
       <c r="H186" s="8"/>
@@ -39064,7 +39070,7 @@
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
       <c r="D187" s="8"/>
-      <c r="E187" s="8"/>
+      <c r="E187" s="10"/>
       <c r="F187" s="8"/>
       <c r="G187" s="8"/>
       <c r="H187" s="8"/>
@@ -39091,7 +39097,7 @@
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
       <c r="D188" s="8"/>
-      <c r="E188" s="8"/>
+      <c r="E188" s="10"/>
       <c r="F188" s="8"/>
       <c r="G188" s="8"/>
       <c r="H188" s="8"/>
@@ -39118,7 +39124,7 @@
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
       <c r="D189" s="8"/>
-      <c r="E189" s="8"/>
+      <c r="E189" s="10"/>
       <c r="F189" s="8"/>
       <c r="G189" s="8"/>
       <c r="H189" s="8"/>
@@ -39145,7 +39151,7 @@
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
       <c r="D190" s="8"/>
-      <c r="E190" s="8"/>
+      <c r="E190" s="10"/>
       <c r="F190" s="8"/>
       <c r="G190" s="8"/>
       <c r="H190" s="8"/>
@@ -39172,7 +39178,7 @@
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
       <c r="D191" s="8"/>
-      <c r="E191" s="8"/>
+      <c r="E191" s="10"/>
       <c r="F191" s="8"/>
       <c r="G191" s="8"/>
       <c r="H191" s="8"/>
@@ -39199,7 +39205,7 @@
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
       <c r="D192" s="8"/>
-      <c r="E192" s="8"/>
+      <c r="E192" s="10"/>
       <c r="F192" s="8"/>
       <c r="G192" s="8"/>
       <c r="H192" s="8"/>
@@ -39226,7 +39232,7 @@
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
       <c r="D193" s="8"/>
-      <c r="E193" s="8"/>
+      <c r="E193" s="10"/>
       <c r="F193" s="8"/>
       <c r="G193" s="8"/>
       <c r="H193" s="8"/>
@@ -39253,7 +39259,7 @@
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
       <c r="D194" s="8"/>
-      <c r="E194" s="8"/>
+      <c r="E194" s="10"/>
       <c r="F194" s="8"/>
       <c r="G194" s="8"/>
       <c r="H194" s="8"/>
@@ -39280,7 +39286,7 @@
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
       <c r="D195" s="8"/>
-      <c r="E195" s="8"/>
+      <c r="E195" s="10"/>
       <c r="F195" s="8"/>
       <c r="G195" s="8"/>
       <c r="H195" s="8"/>
@@ -39307,7 +39313,7 @@
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
       <c r="D196" s="8"/>
-      <c r="E196" s="8"/>
+      <c r="E196" s="10"/>
       <c r="F196" s="8"/>
       <c r="G196" s="8"/>
       <c r="H196" s="8"/>
@@ -39334,7 +39340,7 @@
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
       <c r="D197" s="8"/>
-      <c r="E197" s="8"/>
+      <c r="E197" s="10"/>
       <c r="F197" s="8"/>
       <c r="G197" s="8"/>
       <c r="H197" s="8"/>
@@ -39361,7 +39367,7 @@
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
       <c r="D198" s="8"/>
-      <c r="E198" s="8"/>
+      <c r="E198" s="10"/>
       <c r="F198" s="8"/>
       <c r="G198" s="8"/>
       <c r="H198" s="8"/>
@@ -39388,7 +39394,7 @@
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
       <c r="D199" s="8"/>
-      <c r="E199" s="8"/>
+      <c r="E199" s="10"/>
       <c r="F199" s="8"/>
       <c r="G199" s="8"/>
       <c r="H199" s="8"/>
@@ -39415,7 +39421,7 @@
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
       <c r="D200" s="8"/>
-      <c r="E200" s="8"/>
+      <c r="E200" s="10"/>
       <c r="F200" s="8"/>
       <c r="G200" s="8"/>
       <c r="H200" s="8"/>
@@ -39442,7 +39448,7 @@
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
       <c r="D201" s="8"/>
-      <c r="E201" s="8"/>
+      <c r="E201" s="10"/>
       <c r="F201" s="8"/>
       <c r="G201" s="8"/>
       <c r="H201" s="8"/>
@@ -39469,7 +39475,7 @@
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
       <c r="D202" s="8"/>
-      <c r="E202" s="8"/>
+      <c r="E202" s="10"/>
       <c r="F202" s="8"/>
       <c r="G202" s="8"/>
       <c r="H202" s="8"/>
@@ -39496,7 +39502,7 @@
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
       <c r="D203" s="8"/>
-      <c r="E203" s="8"/>
+      <c r="E203" s="10"/>
       <c r="F203" s="8"/>
       <c r="G203" s="8"/>
       <c r="H203" s="8"/>
@@ -39523,7 +39529,7 @@
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
       <c r="D204" s="8"/>
-      <c r="E204" s="8"/>
+      <c r="E204" s="10"/>
       <c r="F204" s="8"/>
       <c r="G204" s="8"/>
       <c r="H204" s="8"/>
@@ -39550,7 +39556,7 @@
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
       <c r="D205" s="8"/>
-      <c r="E205" s="8"/>
+      <c r="E205" s="10"/>
       <c r="F205" s="8"/>
       <c r="G205" s="8"/>
       <c r="H205" s="8"/>
@@ -39577,7 +39583,7 @@
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
       <c r="D206" s="8"/>
-      <c r="E206" s="8"/>
+      <c r="E206" s="10"/>
       <c r="F206" s="8"/>
       <c r="G206" s="8"/>
       <c r="H206" s="8"/>
@@ -39604,7 +39610,7 @@
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
       <c r="D207" s="8"/>
-      <c r="E207" s="8"/>
+      <c r="E207" s="10"/>
       <c r="F207" s="8"/>
       <c r="G207" s="8"/>
       <c r="H207" s="8"/>
@@ -39631,7 +39637,7 @@
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
       <c r="D208" s="8"/>
-      <c r="E208" s="8"/>
+      <c r="E208" s="10"/>
       <c r="F208" s="8"/>
       <c r="G208" s="8"/>
       <c r="H208" s="8"/>
@@ -39658,7 +39664,7 @@
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
       <c r="D209" s="8"/>
-      <c r="E209" s="8"/>
+      <c r="E209" s="10"/>
       <c r="F209" s="8"/>
       <c r="G209" s="8"/>
       <c r="H209" s="8"/>
@@ -39685,7 +39691,7 @@
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
       <c r="D210" s="8"/>
-      <c r="E210" s="8"/>
+      <c r="E210" s="10"/>
       <c r="F210" s="8"/>
       <c r="G210" s="8"/>
       <c r="H210" s="8"/>
@@ -39712,7 +39718,7 @@
       <c r="B211" s="8"/>
       <c r="C211" s="8"/>
       <c r="D211" s="8"/>
-      <c r="E211" s="8"/>
+      <c r="E211" s="10"/>
       <c r="F211" s="8"/>
       <c r="G211" s="8"/>
       <c r="H211" s="8"/>
@@ -39739,7 +39745,7 @@
       <c r="B212" s="8"/>
       <c r="C212" s="8"/>
       <c r="D212" s="8"/>
-      <c r="E212" s="8"/>
+      <c r="E212" s="10"/>
       <c r="F212" s="8"/>
       <c r="G212" s="8"/>
       <c r="H212" s="8"/>
@@ -39766,7 +39772,7 @@
       <c r="B213" s="8"/>
       <c r="C213" s="8"/>
       <c r="D213" s="8"/>
-      <c r="E213" s="8"/>
+      <c r="E213" s="10"/>
       <c r="F213" s="8"/>
       <c r="G213" s="8"/>
       <c r="H213" s="8"/>
@@ -39793,7 +39799,7 @@
       <c r="B214" s="8"/>
       <c r="C214" s="8"/>
       <c r="D214" s="8"/>
-      <c r="E214" s="8"/>
+      <c r="E214" s="10"/>
       <c r="F214" s="8"/>
       <c r="G214" s="8"/>
       <c r="H214" s="8"/>
@@ -39820,7 +39826,7 @@
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
       <c r="D215" s="8"/>
-      <c r="E215" s="8"/>
+      <c r="E215" s="10"/>
       <c r="F215" s="8"/>
       <c r="G215" s="8"/>
       <c r="H215" s="8"/>
@@ -39847,7 +39853,7 @@
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
       <c r="D216" s="8"/>
-      <c r="E216" s="8"/>
+      <c r="E216" s="10"/>
       <c r="F216" s="8"/>
       <c r="G216" s="8"/>
       <c r="H216" s="8"/>
@@ -39874,7 +39880,7 @@
       <c r="B217" s="8"/>
       <c r="C217" s="8"/>
       <c r="D217" s="8"/>
-      <c r="E217" s="8"/>
+      <c r="E217" s="10"/>
       <c r="F217" s="8"/>
       <c r="G217" s="8"/>
       <c r="H217" s="8"/>
@@ -39901,7 +39907,7 @@
       <c r="B218" s="8"/>
       <c r="C218" s="8"/>
       <c r="D218" s="8"/>
-      <c r="E218" s="8"/>
+      <c r="E218" s="10"/>
       <c r="F218" s="8"/>
       <c r="G218" s="8"/>
       <c r="H218" s="8"/>
@@ -39928,7 +39934,7 @@
       <c r="B219" s="8"/>
       <c r="C219" s="8"/>
       <c r="D219" s="8"/>
-      <c r="E219" s="8"/>
+      <c r="E219" s="10"/>
       <c r="F219" s="8"/>
       <c r="G219" s="8"/>
       <c r="H219" s="8"/>
@@ -39955,7 +39961,7 @@
       <c r="B220" s="8"/>
       <c r="C220" s="8"/>
       <c r="D220" s="8"/>
-      <c r="E220" s="8"/>
+      <c r="E220" s="10"/>
       <c r="F220" s="8"/>
       <c r="G220" s="8"/>
       <c r="H220" s="8"/>
@@ -39982,7 +39988,7 @@
       <c r="B221" s="8"/>
       <c r="C221" s="8"/>
       <c r="D221" s="8"/>
-      <c r="E221" s="8"/>
+      <c r="E221" s="10"/>
       <c r="F221" s="8"/>
       <c r="G221" s="8"/>
       <c r="H221" s="8"/>
@@ -40009,7 +40015,7 @@
       <c r="B222" s="8"/>
       <c r="C222" s="8"/>
       <c r="D222" s="8"/>
-      <c r="E222" s="8"/>
+      <c r="E222" s="10"/>
       <c r="F222" s="8"/>
       <c r="G222" s="8"/>
       <c r="H222" s="8"/>
@@ -40036,7 +40042,7 @@
       <c r="B223" s="8"/>
       <c r="C223" s="8"/>
       <c r="D223" s="8"/>
-      <c r="E223" s="8"/>
+      <c r="E223" s="10"/>
       <c r="F223" s="8"/>
       <c r="G223" s="8"/>
       <c r="H223" s="8"/>
@@ -40063,7 +40069,7 @@
       <c r="B224" s="8"/>
       <c r="C224" s="8"/>
       <c r="D224" s="8"/>
-      <c r="E224" s="8"/>
+      <c r="E224" s="10"/>
       <c r="F224" s="8"/>
       <c r="G224" s="8"/>
       <c r="H224" s="8"/>
@@ -40090,7 +40096,7 @@
       <c r="B225" s="8"/>
       <c r="C225" s="8"/>
       <c r="D225" s="8"/>
-      <c r="E225" s="8"/>
+      <c r="E225" s="10"/>
       <c r="F225" s="8"/>
       <c r="G225" s="8"/>
       <c r="H225" s="8"/>
@@ -40117,7 +40123,7 @@
       <c r="B226" s="8"/>
       <c r="C226" s="8"/>
       <c r="D226" s="8"/>
-      <c r="E226" s="8"/>
+      <c r="E226" s="10"/>
       <c r="F226" s="8"/>
       <c r="G226" s="8"/>
       <c r="H226" s="8"/>
@@ -40144,7 +40150,7 @@
       <c r="B227" s="8"/>
       <c r="C227" s="8"/>
       <c r="D227" s="8"/>
-      <c r="E227" s="8"/>
+      <c r="E227" s="10"/>
       <c r="F227" s="8"/>
       <c r="G227" s="8"/>
       <c r="H227" s="8"/>
@@ -40171,7 +40177,7 @@
       <c r="B228" s="8"/>
       <c r="C228" s="8"/>
       <c r="D228" s="8"/>
-      <c r="E228" s="8"/>
+      <c r="E228" s="10"/>
       <c r="F228" s="8"/>
       <c r="G228" s="8"/>
       <c r="H228" s="8"/>
@@ -40198,7 +40204,7 @@
       <c r="B229" s="8"/>
       <c r="C229" s="8"/>
       <c r="D229" s="8"/>
-      <c r="E229" s="8"/>
+      <c r="E229" s="10"/>
       <c r="F229" s="8"/>
       <c r="G229" s="8"/>
       <c r="H229" s="8"/>
@@ -40225,7 +40231,7 @@
       <c r="B230" s="8"/>
       <c r="C230" s="8"/>
       <c r="D230" s="8"/>
-      <c r="E230" s="8"/>
+      <c r="E230" s="10"/>
       <c r="F230" s="8"/>
       <c r="G230" s="8"/>
       <c r="H230" s="8"/>
@@ -40252,7 +40258,7 @@
       <c r="B231" s="8"/>
       <c r="C231" s="8"/>
       <c r="D231" s="8"/>
-      <c r="E231" s="8"/>
+      <c r="E231" s="10"/>
       <c r="F231" s="8"/>
       <c r="G231" s="8"/>
       <c r="H231" s="8"/>
@@ -40279,7 +40285,7 @@
       <c r="B232" s="8"/>
       <c r="C232" s="8"/>
       <c r="D232" s="8"/>
-      <c r="E232" s="8"/>
+      <c r="E232" s="10"/>
       <c r="F232" s="8"/>
       <c r="G232" s="8"/>
       <c r="H232" s="8"/>
@@ -40306,7 +40312,7 @@
       <c r="B233" s="8"/>
       <c r="C233" s="8"/>
       <c r="D233" s="8"/>
-      <c r="E233" s="8"/>
+      <c r="E233" s="10"/>
       <c r="F233" s="8"/>
       <c r="G233" s="8"/>
       <c r="H233" s="8"/>
@@ -40333,7 +40339,7 @@
       <c r="B234" s="8"/>
       <c r="C234" s="8"/>
       <c r="D234" s="8"/>
-      <c r="E234" s="8"/>
+      <c r="E234" s="10"/>
       <c r="F234" s="8"/>
       <c r="G234" s="8"/>
       <c r="H234" s="8"/>
@@ -40360,7 +40366,7 @@
       <c r="B235" s="8"/>
       <c r="C235" s="8"/>
       <c r="D235" s="8"/>
-      <c r="E235" s="8"/>
+      <c r="E235" s="10"/>
       <c r="F235" s="8"/>
       <c r="G235" s="8"/>
       <c r="H235" s="8"/>
@@ -40387,7 +40393,7 @@
       <c r="B236" s="8"/>
       <c r="C236" s="8"/>
       <c r="D236" s="8"/>
-      <c r="E236" s="8"/>
+      <c r="E236" s="10"/>
       <c r="F236" s="8"/>
       <c r="G236" s="8"/>
       <c r="H236" s="8"/>
@@ -40414,7 +40420,7 @@
       <c r="B237" s="8"/>
       <c r="C237" s="8"/>
       <c r="D237" s="8"/>
-      <c r="E237" s="8"/>
+      <c r="E237" s="10"/>
       <c r="F237" s="8"/>
       <c r="G237" s="8"/>
       <c r="H237" s="8"/>
@@ -40441,7 +40447,7 @@
       <c r="B238" s="8"/>
       <c r="C238" s="8"/>
       <c r="D238" s="8"/>
-      <c r="E238" s="8"/>
+      <c r="E238" s="10"/>
       <c r="F238" s="8"/>
       <c r="G238" s="8"/>
       <c r="H238" s="8"/>
@@ -40468,7 +40474,7 @@
       <c r="B239" s="8"/>
       <c r="C239" s="8"/>
       <c r="D239" s="8"/>
-      <c r="E239" s="8"/>
+      <c r="E239" s="10"/>
       <c r="F239" s="8"/>
       <c r="G239" s="8"/>
       <c r="H239" s="8"/>
@@ -40495,7 +40501,7 @@
       <c r="B240" s="8"/>
       <c r="C240" s="8"/>
       <c r="D240" s="8"/>
-      <c r="E240" s="8"/>
+      <c r="E240" s="10"/>
       <c r="F240" s="8"/>
       <c r="G240" s="8"/>
       <c r="H240" s="8"/>
@@ -40522,7 +40528,7 @@
       <c r="B241" s="8"/>
       <c r="C241" s="8"/>
       <c r="D241" s="8"/>
-      <c r="E241" s="8"/>
+      <c r="E241" s="10"/>
       <c r="F241" s="8"/>
       <c r="G241" s="8"/>
       <c r="H241" s="8"/>
@@ -40549,7 +40555,7 @@
       <c r="B242" s="8"/>
       <c r="C242" s="8"/>
       <c r="D242" s="8"/>
-      <c r="E242" s="8"/>
+      <c r="E242" s="10"/>
       <c r="F242" s="8"/>
       <c r="G242" s="8"/>
       <c r="H242" s="8"/>
@@ -40576,7 +40582,7 @@
       <c r="B243" s="8"/>
       <c r="C243" s="8"/>
       <c r="D243" s="8"/>
-      <c r="E243" s="8"/>
+      <c r="E243" s="10"/>
       <c r="F243" s="8"/>
       <c r="G243" s="8"/>
       <c r="H243" s="8"/>
@@ -40603,7 +40609,7 @@
       <c r="B244" s="8"/>
       <c r="C244" s="8"/>
       <c r="D244" s="8"/>
-      <c r="E244" s="8"/>
+      <c r="E244" s="10"/>
       <c r="F244" s="8"/>
       <c r="G244" s="8"/>
       <c r="H244" s="8"/>
@@ -40630,7 +40636,7 @@
       <c r="B245" s="8"/>
       <c r="C245" s="8"/>
       <c r="D245" s="8"/>
-      <c r="E245" s="8"/>
+      <c r="E245" s="10"/>
       <c r="F245" s="8"/>
       <c r="G245" s="8"/>
       <c r="H245" s="8"/>
@@ -40657,7 +40663,7 @@
       <c r="B246" s="8"/>
       <c r="C246" s="8"/>
       <c r="D246" s="8"/>
-      <c r="E246" s="8"/>
+      <c r="E246" s="10"/>
       <c r="F246" s="8"/>
       <c r="G246" s="8"/>
       <c r="H246" s="8"/>
@@ -40684,7 +40690,7 @@
       <c r="B247" s="8"/>
       <c r="C247" s="8"/>
       <c r="D247" s="8"/>
-      <c r="E247" s="8"/>
+      <c r="E247" s="10"/>
       <c r="F247" s="8"/>
       <c r="G247" s="8"/>
       <c r="H247" s="8"/>
@@ -40711,7 +40717,7 @@
       <c r="B248" s="8"/>
       <c r="C248" s="8"/>
       <c r="D248" s="8"/>
-      <c r="E248" s="8"/>
+      <c r="E248" s="10"/>
       <c r="F248" s="8"/>
       <c r="G248" s="8"/>
       <c r="H248" s="8"/>
@@ -40738,7 +40744,7 @@
       <c r="B249" s="8"/>
       <c r="C249" s="8"/>
       <c r="D249" s="8"/>
-      <c r="E249" s="8"/>
+      <c r="E249" s="10"/>
       <c r="F249" s="8"/>
       <c r="G249" s="8"/>
       <c r="H249" s="8"/>
@@ -40765,7 +40771,7 @@
       <c r="B250" s="8"/>
       <c r="C250" s="8"/>
       <c r="D250" s="8"/>
-      <c r="E250" s="8"/>
+      <c r="E250" s="10"/>
       <c r="F250" s="8"/>
       <c r="G250" s="8"/>
       <c r="H250" s="8"/>
@@ -40792,7 +40798,7 @@
       <c r="B251" s="8"/>
       <c r="C251" s="8"/>
       <c r="D251" s="8"/>
-      <c r="E251" s="8"/>
+      <c r="E251" s="10"/>
       <c r="F251" s="8"/>
       <c r="G251" s="8"/>
       <c r="H251" s="8"/>
@@ -40819,7 +40825,7 @@
       <c r="B252" s="8"/>
       <c r="C252" s="8"/>
       <c r="D252" s="8"/>
-      <c r="E252" s="8"/>
+      <c r="E252" s="10"/>
       <c r="F252" s="8"/>
       <c r="G252" s="8"/>
       <c r="H252" s="8"/>
@@ -40846,7 +40852,7 @@
       <c r="B253" s="8"/>
       <c r="C253" s="8"/>
       <c r="D253" s="8"/>
-      <c r="E253" s="8"/>
+      <c r="E253" s="10"/>
       <c r="F253" s="8"/>
       <c r="G253" s="8"/>
       <c r="H253" s="8"/>
@@ -40873,7 +40879,7 @@
       <c r="B254" s="8"/>
       <c r="C254" s="8"/>
       <c r="D254" s="8"/>
-      <c r="E254" s="8"/>
+      <c r="E254" s="10"/>
       <c r="F254" s="8"/>
       <c r="G254" s="8"/>
       <c r="H254" s="8"/>
@@ -40900,7 +40906,7 @@
       <c r="B255" s="8"/>
       <c r="C255" s="8"/>
       <c r="D255" s="8"/>
-      <c r="E255" s="8"/>
+      <c r="E255" s="10"/>
       <c r="F255" s="8"/>
       <c r="G255" s="8"/>
       <c r="H255" s="8"/>
@@ -40927,7 +40933,7 @@
       <c r="B256" s="8"/>
       <c r="C256" s="8"/>
       <c r="D256" s="8"/>
-      <c r="E256" s="8"/>
+      <c r="E256" s="10"/>
       <c r="F256" s="8"/>
       <c r="G256" s="8"/>
       <c r="H256" s="8"/>
@@ -40954,7 +40960,7 @@
       <c r="B257" s="8"/>
       <c r="C257" s="8"/>
       <c r="D257" s="8"/>
-      <c r="E257" s="8"/>
+      <c r="E257" s="10"/>
       <c r="F257" s="8"/>
       <c r="G257" s="8"/>
       <c r="H257" s="8"/>
@@ -40981,7 +40987,7 @@
       <c r="B258" s="8"/>
       <c r="C258" s="8"/>
       <c r="D258" s="8"/>
-      <c r="E258" s="8"/>
+      <c r="E258" s="10"/>
       <c r="F258" s="8"/>
       <c r="G258" s="8"/>
       <c r="H258" s="8"/>
@@ -41008,7 +41014,7 @@
       <c r="B259" s="8"/>
       <c r="C259" s="8"/>
       <c r="D259" s="8"/>
-      <c r="E259" s="8"/>
+      <c r="E259" s="10"/>
       <c r="F259" s="8"/>
       <c r="G259" s="8"/>
       <c r="H259" s="8"/>
@@ -41035,7 +41041,7 @@
       <c r="B260" s="8"/>
       <c r="C260" s="8"/>
       <c r="D260" s="8"/>
-      <c r="E260" s="8"/>
+      <c r="E260" s="10"/>
       <c r="F260" s="8"/>
       <c r="G260" s="8"/>
       <c r="H260" s="8"/>
@@ -41062,7 +41068,7 @@
       <c r="B261" s="8"/>
       <c r="C261" s="8"/>
       <c r="D261" s="8"/>
-      <c r="E261" s="8"/>
+      <c r="E261" s="10"/>
       <c r="F261" s="8"/>
       <c r="G261" s="8"/>
       <c r="H261" s="8"/>
@@ -41089,7 +41095,7 @@
       <c r="B262" s="8"/>
       <c r="C262" s="8"/>
       <c r="D262" s="8"/>
-      <c r="E262" s="8"/>
+      <c r="E262" s="10"/>
       <c r="F262" s="8"/>
       <c r="G262" s="8"/>
       <c r="H262" s="8"/>
@@ -41116,7 +41122,7 @@
       <c r="B263" s="8"/>
       <c r="C263" s="8"/>
       <c r="D263" s="8"/>
-      <c r="E263" s="8"/>
+      <c r="E263" s="10"/>
       <c r="F263" s="8"/>
       <c r="G263" s="8"/>
       <c r="H263" s="8"/>
@@ -41143,7 +41149,7 @@
       <c r="B264" s="8"/>
       <c r="C264" s="8"/>
       <c r="D264" s="8"/>
-      <c r="E264" s="8"/>
+      <c r="E264" s="10"/>
       <c r="F264" s="8"/>
       <c r="G264" s="8"/>
       <c r="H264" s="8"/>
@@ -41170,7 +41176,7 @@
       <c r="B265" s="8"/>
       <c r="C265" s="8"/>
       <c r="D265" s="8"/>
-      <c r="E265" s="8"/>
+      <c r="E265" s="10"/>
       <c r="F265" s="8"/>
       <c r="G265" s="8"/>
       <c r="H265" s="8"/>
@@ -41197,7 +41203,7 @@
       <c r="B266" s="8"/>
       <c r="C266" s="8"/>
       <c r="D266" s="8"/>
-      <c r="E266" s="8"/>
+      <c r="E266" s="10"/>
       <c r="F266" s="8"/>
       <c r="G266" s="8"/>
       <c r="H266" s="8"/>
@@ -41224,7 +41230,7 @@
       <c r="B267" s="8"/>
       <c r="C267" s="8"/>
       <c r="D267" s="8"/>
-      <c r="E267" s="8"/>
+      <c r="E267" s="10"/>
       <c r="F267" s="8"/>
       <c r="G267" s="8"/>
       <c r="H267" s="8"/>
@@ -41251,7 +41257,7 @@
       <c r="B268" s="8"/>
       <c r="C268" s="8"/>
       <c r="D268" s="8"/>
-      <c r="E268" s="8"/>
+      <c r="E268" s="10"/>
       <c r="F268" s="8"/>
       <c r="G268" s="8"/>
       <c r="H268" s="8"/>
@@ -41278,7 +41284,7 @@
       <c r="B269" s="8"/>
       <c r="C269" s="8"/>
       <c r="D269" s="8"/>
-      <c r="E269" s="8"/>
+      <c r="E269" s="10"/>
       <c r="F269" s="8"/>
       <c r="G269" s="8"/>
       <c r="H269" s="8"/>
@@ -41305,7 +41311,7 @@
       <c r="B270" s="8"/>
       <c r="C270" s="8"/>
       <c r="D270" s="8"/>
-      <c r="E270" s="8"/>
+      <c r="E270" s="10"/>
       <c r="F270" s="8"/>
       <c r="G270" s="8"/>
       <c r="H270" s="8"/>
@@ -41332,7 +41338,7 @@
       <c r="B271" s="8"/>
       <c r="C271" s="8"/>
       <c r="D271" s="8"/>
-      <c r="E271" s="8"/>
+      <c r="E271" s="10"/>
       <c r="F271" s="8"/>
       <c r="G271" s="8"/>
       <c r="H271" s="8"/>
@@ -41359,7 +41365,7 @@
       <c r="B272" s="8"/>
       <c r="C272" s="8"/>
       <c r="D272" s="8"/>
-      <c r="E272" s="8"/>
+      <c r="E272" s="10"/>
       <c r="F272" s="8"/>
       <c r="G272" s="8"/>
       <c r="H272" s="8"/>
@@ -41386,7 +41392,7 @@
       <c r="B273" s="8"/>
       <c r="C273" s="8"/>
       <c r="D273" s="8"/>
-      <c r="E273" s="8"/>
+      <c r="E273" s="10"/>
       <c r="F273" s="8"/>
       <c r="G273" s="8"/>
       <c r="H273" s="8"/>
@@ -41413,7 +41419,7 @@
       <c r="B274" s="8"/>
       <c r="C274" s="8"/>
       <c r="D274" s="8"/>
-      <c r="E274" s="8"/>
+      <c r="E274" s="10"/>
       <c r="F274" s="8"/>
       <c r="G274" s="8"/>
       <c r="H274" s="8"/>
@@ -41440,7 +41446,7 @@
       <c r="B275" s="8"/>
       <c r="C275" s="8"/>
       <c r="D275" s="8"/>
-      <c r="E275" s="8"/>
+      <c r="E275" s="10"/>
       <c r="F275" s="8"/>
       <c r="G275" s="8"/>
       <c r="H275" s="8"/>
@@ -41467,7 +41473,7 @@
       <c r="B276" s="8"/>
       <c r="C276" s="8"/>
       <c r="D276" s="8"/>
-      <c r="E276" s="8"/>
+      <c r="E276" s="10"/>
       <c r="F276" s="8"/>
       <c r="G276" s="8"/>
       <c r="H276" s="8"/>
@@ -41494,7 +41500,7 @@
       <c r="B277" s="8"/>
       <c r="C277" s="8"/>
       <c r="D277" s="8"/>
-      <c r="E277" s="8"/>
+      <c r="E277" s="10"/>
       <c r="F277" s="8"/>
       <c r="G277" s="8"/>
       <c r="H277" s="8"/>
@@ -41521,7 +41527,7 @@
       <c r="B278" s="8"/>
       <c r="C278" s="8"/>
       <c r="D278" s="8"/>
-      <c r="E278" s="8"/>
+      <c r="E278" s="10"/>
       <c r="F278" s="8"/>
       <c r="G278" s="8"/>
       <c r="H278" s="8"/>
@@ -41548,7 +41554,7 @@
       <c r="B279" s="8"/>
       <c r="C279" s="8"/>
       <c r="D279" s="8"/>
-      <c r="E279" s="8"/>
+      <c r="E279" s="10"/>
       <c r="F279" s="8"/>
       <c r="G279" s="8"/>
       <c r="H279" s="8"/>
@@ -41575,7 +41581,7 @@
       <c r="B280" s="8"/>
       <c r="C280" s="8"/>
       <c r="D280" s="8"/>
-      <c r="E280" s="8"/>
+      <c r="E280" s="10"/>
       <c r="F280" s="8"/>
       <c r="G280" s="8"/>
       <c r="H280" s="8"/>
@@ -41602,7 +41608,7 @@
       <c r="B281" s="8"/>
       <c r="C281" s="8"/>
       <c r="D281" s="8"/>
-      <c r="E281" s="8"/>
+      <c r="E281" s="10"/>
       <c r="F281" s="8"/>
       <c r="G281" s="8"/>
       <c r="H281" s="8"/>
@@ -41629,7 +41635,7 @@
       <c r="B282" s="8"/>
       <c r="C282" s="8"/>
       <c r="D282" s="8"/>
-      <c r="E282" s="8"/>
+      <c r="E282" s="10"/>
       <c r="F282" s="8"/>
       <c r="G282" s="8"/>
       <c r="H282" s="8"/>
@@ -41656,7 +41662,7 @@
       <c r="B283" s="8"/>
       <c r="C283" s="8"/>
       <c r="D283" s="8"/>
-      <c r="E283" s="8"/>
+      <c r="E283" s="10"/>
       <c r="F283" s="8"/>
       <c r="G283" s="8"/>
       <c r="H283" s="8"/>
@@ -41683,7 +41689,7 @@
       <c r="B284" s="8"/>
       <c r="C284" s="8"/>
       <c r="D284" s="8"/>
-      <c r="E284" s="8"/>
+      <c r="E284" s="10"/>
       <c r="F284" s="8"/>
       <c r="G284" s="8"/>
       <c r="H284" s="8"/>
@@ -41710,7 +41716,7 @@
       <c r="B285" s="8"/>
       <c r="C285" s="8"/>
       <c r="D285" s="8"/>
-      <c r="E285" s="8"/>
+      <c r="E285" s="10"/>
       <c r="F285" s="8"/>
       <c r="G285" s="8"/>
       <c r="H285" s="8"/>
@@ -41737,7 +41743,7 @@
       <c r="B286" s="8"/>
       <c r="C286" s="8"/>
       <c r="D286" s="8"/>
-      <c r="E286" s="8"/>
+      <c r="E286" s="10"/>
       <c r="F286" s="8"/>
       <c r="G286" s="8"/>
       <c r="H286" s="8"/>
@@ -41764,7 +41770,7 @@
       <c r="B287" s="8"/>
       <c r="C287" s="8"/>
       <c r="D287" s="8"/>
-      <c r="E287" s="8"/>
+      <c r="E287" s="10"/>
       <c r="F287" s="8"/>
       <c r="G287" s="8"/>
       <c r="H287" s="8"/>
@@ -41791,7 +41797,7 @@
       <c r="B288" s="8"/>
       <c r="C288" s="8"/>
       <c r="D288" s="8"/>
-      <c r="E288" s="8"/>
+      <c r="E288" s="10"/>
       <c r="F288" s="8"/>
       <c r="G288" s="8"/>
       <c r="H288" s="8"/>
@@ -41818,7 +41824,7 @@
       <c r="B289" s="8"/>
       <c r="C289" s="8"/>
       <c r="D289" s="8"/>
-      <c r="E289" s="8"/>
+      <c r="E289" s="10"/>
       <c r="F289" s="8"/>
       <c r="G289" s="8"/>
       <c r="H289" s="8"/>
@@ -41845,7 +41851,7 @@
       <c r="B290" s="8"/>
       <c r="C290" s="8"/>
       <c r="D290" s="8"/>
-      <c r="E290" s="8"/>
+      <c r="E290" s="10"/>
       <c r="F290" s="8"/>
       <c r="G290" s="8"/>
       <c r="H290" s="8"/>
@@ -41872,7 +41878,7 @@
       <c r="B291" s="8"/>
       <c r="C291" s="8"/>
       <c r="D291" s="8"/>
-      <c r="E291" s="8"/>
+      <c r="E291" s="10"/>
       <c r="F291" s="8"/>
       <c r="G291" s="8"/>
       <c r="H291" s="8"/>
@@ -41899,7 +41905,7 @@
       <c r="B292" s="8"/>
       <c r="C292" s="8"/>
       <c r="D292" s="8"/>
-      <c r="E292" s="8"/>
+      <c r="E292" s="10"/>
       <c r="F292" s="8"/>
       <c r="G292" s="8"/>
       <c r="H292" s="8"/>
@@ -41926,7 +41932,7 @@
       <c r="B293" s="8"/>
       <c r="C293" s="8"/>
       <c r="D293" s="8"/>
-      <c r="E293" s="8"/>
+      <c r="E293" s="10"/>
       <c r="F293" s="8"/>
       <c r="G293" s="8"/>
       <c r="H293" s="8"/>
@@ -41953,7 +41959,7 @@
       <c r="B294" s="8"/>
       <c r="C294" s="8"/>
       <c r="D294" s="8"/>
-      <c r="E294" s="8"/>
+      <c r="E294" s="10"/>
       <c r="F294" s="8"/>
       <c r="G294" s="8"/>
       <c r="H294" s="8"/>
@@ -41980,7 +41986,7 @@
       <c r="B295" s="8"/>
       <c r="C295" s="8"/>
       <c r="D295" s="8"/>
-      <c r="E295" s="8"/>
+      <c r="E295" s="10"/>
       <c r="F295" s="8"/>
       <c r="G295" s="8"/>
       <c r="H295" s="8"/>
@@ -42007,7 +42013,7 @@
       <c r="B296" s="8"/>
       <c r="C296" s="8"/>
       <c r="D296" s="8"/>
-      <c r="E296" s="8"/>
+      <c r="E296" s="10"/>
       <c r="F296" s="8"/>
       <c r="G296" s="8"/>
       <c r="H296" s="8"/>
@@ -42034,7 +42040,7 @@
       <c r="B297" s="8"/>
       <c r="C297" s="8"/>
       <c r="D297" s="8"/>
-      <c r="E297" s="8"/>
+      <c r="E297" s="10"/>
       <c r="F297" s="8"/>
       <c r="G297" s="8"/>
       <c r="H297" s="8"/>
@@ -42061,7 +42067,7 @@
       <c r="B298" s="8"/>
       <c r="C298" s="8"/>
       <c r="D298" s="8"/>
-      <c r="E298" s="8"/>
+      <c r="E298" s="10"/>
       <c r="F298" s="8"/>
       <c r="G298" s="8"/>
       <c r="H298" s="8"/>
@@ -42088,7 +42094,7 @@
       <c r="B299" s="8"/>
       <c r="C299" s="8"/>
       <c r="D299" s="8"/>
-      <c r="E299" s="8"/>
+      <c r="E299" s="10"/>
       <c r="F299" s="8"/>
       <c r="G299" s="8"/>
       <c r="H299" s="8"/>
@@ -42115,7 +42121,7 @@
       <c r="B300" s="8"/>
       <c r="C300" s="8"/>
       <c r="D300" s="8"/>
-      <c r="E300" s="8"/>
+      <c r="E300" s="10"/>
       <c r="F300" s="8"/>
       <c r="G300" s="8"/>
       <c r="H300" s="8"/>
@@ -42142,7 +42148,7 @@
       <c r="B301" s="8"/>
       <c r="C301" s="8"/>
       <c r="D301" s="8"/>
-      <c r="E301" s="8"/>
+      <c r="E301" s="10"/>
       <c r="F301" s="8"/>
       <c r="G301" s="8"/>
       <c r="H301" s="8"/>
@@ -42169,7 +42175,7 @@
       <c r="B302" s="8"/>
       <c r="C302" s="8"/>
       <c r="D302" s="8"/>
-      <c r="E302" s="8"/>
+      <c r="E302" s="10"/>
       <c r="F302" s="8"/>
       <c r="G302" s="8"/>
       <c r="H302" s="8"/>
@@ -42196,7 +42202,7 @@
       <c r="B303" s="8"/>
       <c r="C303" s="8"/>
       <c r="D303" s="8"/>
-      <c r="E303" s="8"/>
+      <c r="E303" s="10"/>
       <c r="F303" s="8"/>
       <c r="G303" s="8"/>
       <c r="H303" s="8"/>
@@ -42223,7 +42229,7 @@
       <c r="B304" s="8"/>
       <c r="C304" s="8"/>
       <c r="D304" s="8"/>
-      <c r="E304" s="8"/>
+      <c r="E304" s="10"/>
       <c r="F304" s="8"/>
       <c r="G304" s="8"/>
       <c r="H304" s="8"/>
@@ -42250,7 +42256,7 @@
       <c r="B305" s="8"/>
       <c r="C305" s="8"/>
       <c r="D305" s="8"/>
-      <c r="E305" s="8"/>
+      <c r="E305" s="10"/>
       <c r="F305" s="8"/>
       <c r="G305" s="8"/>
       <c r="H305" s="8"/>
@@ -42277,7 +42283,7 @@
       <c r="B306" s="8"/>
       <c r="C306" s="8"/>
       <c r="D306" s="8"/>
-      <c r="E306" s="8"/>
+      <c r="E306" s="10"/>
       <c r="F306" s="8"/>
       <c r="G306" s="8"/>
       <c r="H306" s="8"/>
@@ -42304,7 +42310,7 @@
       <c r="B307" s="8"/>
       <c r="C307" s="8"/>
       <c r="D307" s="8"/>
-      <c r="E307" s="8"/>
+      <c r="E307" s="10"/>
       <c r="F307" s="8"/>
       <c r="G307" s="8"/>
       <c r="H307" s="8"/>
@@ -42331,7 +42337,7 @@
       <c r="B308" s="8"/>
       <c r="C308" s="8"/>
       <c r="D308" s="8"/>
-      <c r="E308" s="8"/>
+      <c r="E308" s="10"/>
       <c r="F308" s="8"/>
       <c r="G308" s="8"/>
       <c r="H308" s="8"/>
@@ -42358,7 +42364,7 @@
       <c r="B309" s="8"/>
       <c r="C309" s="8"/>
       <c r="D309" s="8"/>
-      <c r="E309" s="8"/>
+      <c r="E309" s="10"/>
       <c r="F309" s="8"/>
       <c r="G309" s="8"/>
       <c r="H309" s="8"/>
@@ -42385,7 +42391,7 @@
       <c r="B310" s="8"/>
       <c r="C310" s="8"/>
       <c r="D310" s="8"/>
-      <c r="E310" s="8"/>
+      <c r="E310" s="10"/>
       <c r="F310" s="8"/>
       <c r="G310" s="8"/>
       <c r="H310" s="8"/>
@@ -42412,7 +42418,7 @@
       <c r="B311" s="8"/>
       <c r="C311" s="8"/>
       <c r="D311" s="8"/>
-      <c r="E311" s="8"/>
+      <c r="E311" s="10"/>
       <c r="F311" s="8"/>
       <c r="G311" s="8"/>
       <c r="H311" s="8"/>
@@ -42439,7 +42445,7 @@
       <c r="B312" s="8"/>
       <c r="C312" s="8"/>
       <c r="D312" s="8"/>
-      <c r="E312" s="8"/>
+      <c r="E312" s="10"/>
       <c r="F312" s="8"/>
       <c r="G312" s="8"/>
       <c r="H312" s="8"/>
@@ -42466,7 +42472,7 @@
       <c r="B313" s="8"/>
       <c r="C313" s="8"/>
       <c r="D313" s="8"/>
-      <c r="E313" s="8"/>
+      <c r="E313" s="10"/>
       <c r="F313" s="8"/>
       <c r="G313" s="8"/>
       <c r="H313" s="8"/>
@@ -42493,7 +42499,7 @@
       <c r="B314" s="8"/>
       <c r="C314" s="8"/>
       <c r="D314" s="8"/>
-      <c r="E314" s="8"/>
+      <c r="E314" s="10"/>
       <c r="F314" s="8"/>
       <c r="G314" s="8"/>
       <c r="H314" s="8"/>
@@ -42520,7 +42526,7 @@
       <c r="B315" s="8"/>
       <c r="C315" s="8"/>
       <c r="D315" s="8"/>
-      <c r="E315" s="8"/>
+      <c r="E315" s="10"/>
       <c r="F315" s="8"/>
       <c r="G315" s="8"/>
       <c r="H315" s="8"/>
@@ -42547,7 +42553,7 @@
       <c r="B316" s="8"/>
       <c r="C316" s="8"/>
       <c r="D316" s="8"/>
-      <c r="E316" s="8"/>
+      <c r="E316" s="10"/>
       <c r="F316" s="8"/>
       <c r="G316" s="8"/>
       <c r="H316" s="8"/>
@@ -42574,7 +42580,7 @@
       <c r="B317" s="8"/>
       <c r="C317" s="8"/>
       <c r="D317" s="8"/>
-      <c r="E317" s="8"/>
+      <c r="E317" s="10"/>
       <c r="F317" s="8"/>
       <c r="G317" s="8"/>
       <c r="H317" s="8"/>
@@ -42601,7 +42607,7 @@
       <c r="B318" s="8"/>
       <c r="C318" s="8"/>
       <c r="D318" s="8"/>
-      <c r="E318" s="8"/>
+      <c r="E318" s="10"/>
       <c r="F318" s="8"/>
       <c r="G318" s="8"/>
       <c r="H318" s="8"/>
@@ -42628,7 +42634,7 @@
       <c r="B319" s="8"/>
       <c r="C319" s="8"/>
       <c r="D319" s="8"/>
-      <c r="E319" s="8"/>
+      <c r="E319" s="10"/>
       <c r="F319" s="8"/>
       <c r="G319" s="8"/>
       <c r="H319" s="8"/>
@@ -42655,7 +42661,7 @@
       <c r="B320" s="8"/>
       <c r="C320" s="8"/>
       <c r="D320" s="8"/>
-      <c r="E320" s="8"/>
+      <c r="E320" s="10"/>
       <c r="F320" s="8"/>
       <c r="G320" s="8"/>
       <c r="H320" s="8"/>
@@ -42682,7 +42688,7 @@
       <c r="B321" s="8"/>
       <c r="C321" s="8"/>
       <c r="D321" s="8"/>
-      <c r="E321" s="8"/>
+      <c r="E321" s="10"/>
       <c r="F321" s="8"/>
       <c r="G321" s="8"/>
       <c r="H321" s="8"/>
@@ -42709,7 +42715,7 @@
       <c r="B322" s="8"/>
       <c r="C322" s="8"/>
       <c r="D322" s="8"/>
-      <c r="E322" s="8"/>
+      <c r="E322" s="10"/>
       <c r="F322" s="8"/>
       <c r="G322" s="8"/>
       <c r="H322" s="8"/>
@@ -42736,7 +42742,7 @@
       <c r="B323" s="8"/>
       <c r="C323" s="8"/>
       <c r="D323" s="8"/>
-      <c r="E323" s="8"/>
+      <c r="E323" s="10"/>
       <c r="F323" s="8"/>
       <c r="G323" s="8"/>
       <c r="H323" s="8"/>
@@ -42763,7 +42769,7 @@
       <c r="B324" s="8"/>
       <c r="C324" s="8"/>
       <c r="D324" s="8"/>
-      <c r="E324" s="8"/>
+      <c r="E324" s="10"/>
       <c r="F324" s="8"/>
       <c r="G324" s="8"/>
       <c r="H324" s="8"/>
@@ -42790,7 +42796,7 @@
       <c r="B325" s="8"/>
       <c r="C325" s="8"/>
       <c r="D325" s="8"/>
-      <c r="E325" s="8"/>
+      <c r="E325" s="10"/>
       <c r="F325" s="8"/>
       <c r="G325" s="8"/>
       <c r="H325" s="8"/>
@@ -42817,7 +42823,7 @@
       <c r="B326" s="8"/>
       <c r="C326" s="8"/>
       <c r="D326" s="8"/>
-      <c r="E326" s="8"/>
+      <c r="E326" s="10"/>
       <c r="F326" s="8"/>
       <c r="G326" s="8"/>
       <c r="H326" s="8"/>
@@ -42844,7 +42850,7 @@
       <c r="B327" s="8"/>
       <c r="C327" s="8"/>
       <c r="D327" s="8"/>
-      <c r="E327" s="8"/>
+      <c r="E327" s="10"/>
       <c r="F327" s="8"/>
       <c r="G327" s="8"/>
       <c r="H327" s="8"/>
@@ -42871,7 +42877,7 @@
       <c r="B328" s="8"/>
       <c r="C328" s="8"/>
       <c r="D328" s="8"/>
-      <c r="E328" s="8"/>
+      <c r="E328" s="10"/>
       <c r="F328" s="8"/>
       <c r="G328" s="8"/>
       <c r="H328" s="8"/>
@@ -42898,7 +42904,7 @@
       <c r="B329" s="8"/>
       <c r="C329" s="8"/>
       <c r="D329" s="8"/>
-      <c r="E329" s="8"/>
+      <c r="E329" s="10"/>
       <c r="F329" s="8"/>
       <c r="G329" s="8"/>
       <c r="H329" s="8"/>
@@ -42925,7 +42931,7 @@
       <c r="B330" s="8"/>
       <c r="C330" s="8"/>
       <c r="D330" s="8"/>
-      <c r="E330" s="8"/>
+      <c r="E330" s="10"/>
       <c r="F330" s="8"/>
       <c r="G330" s="8"/>
       <c r="H330" s="8"/>
@@ -42952,7 +42958,7 @@
       <c r="B331" s="8"/>
       <c r="C331" s="8"/>
       <c r="D331" s="8"/>
-      <c r="E331" s="8"/>
+      <c r="E331" s="10"/>
       <c r="F331" s="8"/>
       <c r="G331" s="8"/>
       <c r="H331" s="8"/>
@@ -42979,7 +42985,7 @@
       <c r="B332" s="8"/>
       <c r="C332" s="8"/>
       <c r="D332" s="8"/>
-      <c r="E332" s="8"/>
+      <c r="E332" s="10"/>
       <c r="F332" s="8"/>
       <c r="G332" s="8"/>
       <c r="H332" s="8"/>
@@ -43006,7 +43012,7 @@
       <c r="B333" s="8"/>
       <c r="C333" s="8"/>
       <c r="D333" s="8"/>
-      <c r="E333" s="8"/>
+      <c r="E333" s="10"/>
       <c r="F333" s="8"/>
       <c r="G333" s="8"/>
       <c r="H333" s="8"/>
@@ -43033,7 +43039,7 @@
       <c r="B334" s="8"/>
       <c r="C334" s="8"/>
       <c r="D334" s="8"/>
-      <c r="E334" s="8"/>
+      <c r="E334" s="10"/>
       <c r="F334" s="8"/>
       <c r="G334" s="8"/>
       <c r="H334" s="8"/>
@@ -43060,7 +43066,7 @@
       <c r="B335" s="8"/>
       <c r="C335" s="8"/>
       <c r="D335" s="8"/>
-      <c r="E335" s="8"/>
+      <c r="E335" s="10"/>
       <c r="F335" s="8"/>
       <c r="G335" s="8"/>
       <c r="H335" s="8"/>
@@ -43087,7 +43093,7 @@
       <c r="B336" s="8"/>
       <c r="C336" s="8"/>
       <c r="D336" s="8"/>
-      <c r="E336" s="8"/>
+      <c r="E336" s="10"/>
       <c r="F336" s="8"/>
       <c r="G336" s="8"/>
       <c r="H336" s="8"/>
@@ -43114,7 +43120,7 @@
       <c r="B337" s="8"/>
       <c r="C337" s="8"/>
       <c r="D337" s="8"/>
-      <c r="E337" s="8"/>
+      <c r="E337" s="10"/>
       <c r="F337" s="8"/>
       <c r="G337" s="8"/>
       <c r="H337" s="8"/>
@@ -43141,7 +43147,7 @@
       <c r="B338" s="8"/>
       <c r="C338" s="8"/>
       <c r="D338" s="8"/>
-      <c r="E338" s="8"/>
+      <c r="E338" s="10"/>
       <c r="F338" s="8"/>
       <c r="G338" s="8"/>
       <c r="H338" s="8"/>
@@ -43168,7 +43174,7 @@
       <c r="B339" s="8"/>
       <c r="C339" s="8"/>
       <c r="D339" s="8"/>
-      <c r="E339" s="8"/>
+      <c r="E339" s="10"/>
       <c r="F339" s="8"/>
       <c r="G339" s="8"/>
       <c r="H339" s="8"/>
@@ -43195,7 +43201,7 @@
       <c r="B340" s="8"/>
       <c r="C340" s="8"/>
       <c r="D340" s="8"/>
-      <c r="E340" s="8"/>
+      <c r="E340" s="10"/>
       <c r="F340" s="8"/>
       <c r="G340" s="8"/>
       <c r="H340" s="8"/>
@@ -43222,7 +43228,7 @@
       <c r="B341" s="8"/>
       <c r="C341" s="8"/>
       <c r="D341" s="8"/>
-      <c r="E341" s="8"/>
+      <c r="E341" s="10"/>
       <c r="F341" s="8"/>
       <c r="G341" s="8"/>
       <c r="H341" s="8"/>
@@ -43249,7 +43255,7 @@
       <c r="B342" s="8"/>
       <c r="C342" s="8"/>
       <c r="D342" s="8"/>
-      <c r="E342" s="8"/>
+      <c r="E342" s="10"/>
       <c r="F342" s="8"/>
       <c r="G342" s="8"/>
       <c r="H342" s="8"/>
@@ -43276,7 +43282,7 @@
       <c r="B343" s="8"/>
       <c r="C343" s="8"/>
       <c r="D343" s="8"/>
-      <c r="E343" s="8"/>
+      <c r="E343" s="10"/>
       <c r="F343" s="8"/>
       <c r="G343" s="8"/>
       <c r="H343" s="8"/>
@@ -43303,7 +43309,7 @@
       <c r="B344" s="8"/>
       <c r="C344" s="8"/>
       <c r="D344" s="8"/>
-      <c r="E344" s="8"/>
+      <c r="E344" s="10"/>
       <c r="F344" s="8"/>
       <c r="G344" s="8"/>
       <c r="H344" s="8"/>
@@ -43330,7 +43336,7 @@
       <c r="B345" s="8"/>
       <c r="C345" s="8"/>
       <c r="D345" s="8"/>
-      <c r="E345" s="8"/>
+      <c r="E345" s="10"/>
       <c r="F345" s="8"/>
       <c r="G345" s="8"/>
       <c r="H345" s="8"/>
@@ -43357,7 +43363,7 @@
       <c r="B346" s="8"/>
       <c r="C346" s="8"/>
       <c r="D346" s="8"/>
-      <c r="E346" s="8"/>
+      <c r="E346" s="10"/>
       <c r="F346" s="8"/>
       <c r="G346" s="8"/>
       <c r="H346" s="8"/>
@@ -43384,7 +43390,7 @@
       <c r="B347" s="8"/>
       <c r="C347" s="8"/>
       <c r="D347" s="8"/>
-      <c r="E347" s="8"/>
+      <c r="E347" s="10"/>
       <c r="F347" s="8"/>
       <c r="G347" s="8"/>
       <c r="H347" s="8"/>
@@ -43411,7 +43417,7 @@
       <c r="B348" s="8"/>
       <c r="C348" s="8"/>
       <c r="D348" s="8"/>
-      <c r="E348" s="8"/>
+      <c r="E348" s="10"/>
       <c r="F348" s="8"/>
       <c r="G348" s="8"/>
       <c r="H348" s="8"/>
@@ -43438,7 +43444,7 @@
       <c r="B349" s="8"/>
       <c r="C349" s="8"/>
       <c r="D349" s="8"/>
-      <c r="E349" s="8"/>
+      <c r="E349" s="10"/>
       <c r="F349" s="8"/>
       <c r="G349" s="8"/>
       <c r="H349" s="8"/>
@@ -43465,7 +43471,7 @@
       <c r="B350" s="8"/>
       <c r="C350" s="8"/>
       <c r="D350" s="8"/>
-      <c r="E350" s="8"/>
+      <c r="E350" s="10"/>
       <c r="F350" s="8"/>
       <c r="G350" s="8"/>
       <c r="H350" s="8"/>
@@ -43492,7 +43498,7 @@
       <c r="B351" s="8"/>
       <c r="C351" s="8"/>
       <c r="D351" s="8"/>
-      <c r="E351" s="8"/>
+      <c r="E351" s="10"/>
       <c r="F351" s="8"/>
       <c r="G351" s="8"/>
       <c r="H351" s="8"/>
@@ -43519,7 +43525,7 @@
       <c r="B352" s="8"/>
       <c r="C352" s="8"/>
       <c r="D352" s="8"/>
-      <c r="E352" s="8"/>
+      <c r="E352" s="10"/>
       <c r="F352" s="8"/>
       <c r="G352" s="8"/>
       <c r="H352" s="8"/>
@@ -43546,7 +43552,7 @@
       <c r="B353" s="8"/>
       <c r="C353" s="8"/>
       <c r="D353" s="8"/>
-      <c r="E353" s="8"/>
+      <c r="E353" s="10"/>
       <c r="F353" s="8"/>
       <c r="G353" s="8"/>
       <c r="H353" s="8"/>
@@ -43573,7 +43579,7 @@
       <c r="B354" s="8"/>
       <c r="C354" s="8"/>
       <c r="D354" s="8"/>
-      <c r="E354" s="8"/>
+      <c r="E354" s="10"/>
       <c r="F354" s="8"/>
       <c r="G354" s="8"/>
       <c r="H354" s="8"/>
@@ -43600,7 +43606,7 @@
       <c r="B355" s="8"/>
       <c r="C355" s="8"/>
       <c r="D355" s="8"/>
-      <c r="E355" s="8"/>
+      <c r="E355" s="10"/>
       <c r="F355" s="8"/>
       <c r="G355" s="8"/>
       <c r="H355" s="8"/>
@@ -43627,7 +43633,7 @@
       <c r="B356" s="8"/>
       <c r="C356" s="8"/>
       <c r="D356" s="8"/>
-      <c r="E356" s="8"/>
+      <c r="E356" s="10"/>
       <c r="F356" s="8"/>
       <c r="G356" s="8"/>
       <c r="H356" s="8"/>
@@ -43654,7 +43660,7 @@
       <c r="B357" s="8"/>
       <c r="C357" s="8"/>
       <c r="D357" s="8"/>
-      <c r="E357" s="8"/>
+      <c r="E357" s="10"/>
       <c r="F357" s="8"/>
       <c r="G357" s="8"/>
       <c r="H357" s="8"/>
@@ -43681,7 +43687,7 @@
       <c r="B358" s="8"/>
       <c r="C358" s="8"/>
       <c r="D358" s="8"/>
-      <c r="E358" s="8"/>
+      <c r="E358" s="10"/>
       <c r="F358" s="8"/>
       <c r="G358" s="8"/>
       <c r="H358" s="8"/>
@@ -43708,7 +43714,7 @@
       <c r="B359" s="8"/>
       <c r="C359" s="8"/>
       <c r="D359" s="8"/>
-      <c r="E359" s="8"/>
+      <c r="E359" s="10"/>
       <c r="F359" s="8"/>
       <c r="G359" s="8"/>
       <c r="H359" s="8"/>
@@ -43735,7 +43741,7 @@
       <c r="B360" s="8"/>
       <c r="C360" s="8"/>
       <c r="D360" s="8"/>
-      <c r="E360" s="8"/>
+      <c r="E360" s="10"/>
       <c r="F360" s="8"/>
       <c r="G360" s="8"/>
       <c r="H360" s="8"/>
@@ -43762,7 +43768,7 @@
       <c r="B361" s="8"/>
       <c r="C361" s="8"/>
       <c r="D361" s="8"/>
-      <c r="E361" s="8"/>
+      <c r="E361" s="10"/>
       <c r="F361" s="8"/>
       <c r="G361" s="8"/>
       <c r="H361" s="8"/>
@@ -43789,7 +43795,7 @@
       <c r="B362" s="8"/>
       <c r="C362" s="8"/>
       <c r="D362" s="8"/>
-      <c r="E362" s="8"/>
+      <c r="E362" s="10"/>
       <c r="F362" s="8"/>
       <c r="G362" s="8"/>
       <c r="H362" s="8"/>
@@ -43816,7 +43822,7 @@
       <c r="B363" s="8"/>
       <c r="C363" s="8"/>
       <c r="D363" s="8"/>
-      <c r="E363" s="8"/>
+      <c r="E363" s="10"/>
       <c r="F363" s="8"/>
       <c r="G363" s="8"/>
       <c r="H363" s="8"/>
@@ -43843,7 +43849,7 @@
       <c r="B364" s="8"/>
       <c r="C364" s="8"/>
       <c r="D364" s="8"/>
-      <c r="E364" s="8"/>
+      <c r="E364" s="10"/>
       <c r="F364" s="8"/>
       <c r="G364" s="8"/>
       <c r="H364" s="8"/>
@@ -43870,7 +43876,7 @@
       <c r="B365" s="8"/>
       <c r="C365" s="8"/>
       <c r="D365" s="8"/>
-      <c r="E365" s="8"/>
+      <c r="E365" s="10"/>
       <c r="F365" s="8"/>
       <c r="G365" s="8"/>
       <c r="H365" s="8"/>
@@ -43897,7 +43903,7 @@
       <c r="B366" s="8"/>
       <c r="C366" s="8"/>
       <c r="D366" s="8"/>
-      <c r="E366" s="8"/>
+      <c r="E366" s="10"/>
       <c r="F366" s="8"/>
       <c r="G366" s="8"/>
       <c r="H366" s="8"/>
@@ -43924,7 +43930,7 @@
       <c r="B367" s="8"/>
       <c r="C367" s="8"/>
       <c r="D367" s="8"/>
-      <c r="E367" s="8"/>
+      <c r="E367" s="10"/>
       <c r="F367" s="8"/>
       <c r="G367" s="8"/>
       <c r="H367" s="8"/>
@@ -43951,7 +43957,7 @@
       <c r="B368" s="8"/>
       <c r="C368" s="8"/>
       <c r="D368" s="8"/>
-      <c r="E368" s="8"/>
+      <c r="E368" s="10"/>
       <c r="F368" s="8"/>
       <c r="G368" s="8"/>
       <c r="H368" s="8"/>
@@ -43978,7 +43984,7 @@
       <c r="B369" s="8"/>
       <c r="C369" s="8"/>
       <c r="D369" s="8"/>
-      <c r="E369" s="8"/>
+      <c r="E369" s="10"/>
       <c r="F369" s="8"/>
       <c r="G369" s="8"/>
       <c r="H369" s="8"/>
@@ -44005,7 +44011,7 @@
       <c r="B370" s="8"/>
       <c r="C370" s="8"/>
       <c r="D370" s="8"/>
-      <c r="E370" s="8"/>
+      <c r="E370" s="10"/>
       <c r="F370" s="8"/>
       <c r="G370" s="8"/>
       <c r="H370" s="8"/>
@@ -44032,7 +44038,7 @@
       <c r="B371" s="8"/>
       <c r="C371" s="8"/>
       <c r="D371" s="8"/>
-      <c r="E371" s="8"/>
+      <c r="E371" s="10"/>
       <c r="F371" s="8"/>
       <c r="G371" s="8"/>
       <c r="H371" s="8"/>
@@ -44059,7 +44065,7 @@
       <c r="B372" s="8"/>
       <c r="C372" s="8"/>
       <c r="D372" s="8"/>
-      <c r="E372" s="8"/>
+      <c r="E372" s="10"/>
       <c r="F372" s="8"/>
       <c r="G372" s="8"/>
       <c r="H372" s="8"/>
@@ -44086,7 +44092,7 @@
       <c r="B373" s="8"/>
       <c r="C373" s="8"/>
       <c r="D373" s="8"/>
-      <c r="E373" s="8"/>
+      <c r="E373" s="10"/>
       <c r="F373" s="8"/>
       <c r="G373" s="8"/>
       <c r="H373" s="8"/>
@@ -44113,7 +44119,7 @@
       <c r="B374" s="8"/>
       <c r="C374" s="8"/>
       <c r="D374" s="8"/>
-      <c r="E374" s="8"/>
+      <c r="E374" s="10"/>
       <c r="F374" s="8"/>
       <c r="G374" s="8"/>
       <c r="H374" s="8"/>
@@ -44140,7 +44146,7 @@
       <c r="B375" s="8"/>
       <c r="C375" s="8"/>
       <c r="D375" s="8"/>
-      <c r="E375" s="8"/>
+      <c r="E375" s="10"/>
       <c r="F375" s="8"/>
       <c r="G375" s="8"/>
       <c r="H375" s="8"/>
@@ -44167,7 +44173,7 @@
       <c r="B376" s="8"/>
       <c r="C376" s="8"/>
       <c r="D376" s="8"/>
-      <c r="E376" s="8"/>
+      <c r="E376" s="10"/>
       <c r="F376" s="8"/>
       <c r="G376" s="8"/>
       <c r="H376" s="8"/>
@@ -44194,7 +44200,7 @@
       <c r="B377" s="8"/>
       <c r="C377" s="8"/>
       <c r="D377" s="8"/>
-      <c r="E377" s="8"/>
+      <c r="E377" s="10"/>
       <c r="F377" s="8"/>
       <c r="G377" s="8"/>
       <c r="H377" s="8"/>
@@ -44221,7 +44227,7 @@
       <c r="B378" s="8"/>
       <c r="C378" s="8"/>
       <c r="D378" s="8"/>
-      <c r="E378" s="8"/>
+      <c r="E378" s="10"/>
       <c r="F378" s="8"/>
       <c r="G378" s="8"/>
       <c r="H378" s="8"/>
@@ -44248,7 +44254,7 @@
       <c r="B379" s="8"/>
       <c r="C379" s="8"/>
       <c r="D379" s="8"/>
-      <c r="E379" s="8"/>
+      <c r="E379" s="10"/>
       <c r="F379" s="8"/>
       <c r="G379" s="8"/>
       <c r="H379" s="8"/>
@@ -44275,7 +44281,7 @@
       <c r="B380" s="8"/>
       <c r="C380" s="8"/>
       <c r="D380" s="8"/>
-      <c r="E380" s="8"/>
+      <c r="E380" s="10"/>
       <c r="F380" s="8"/>
       <c r="G380" s="8"/>
       <c r="H380" s="8"/>
@@ -44302,7 +44308,7 @@
       <c r="B381" s="8"/>
       <c r="C381" s="8"/>
       <c r="D381" s="8"/>
-      <c r="E381" s="8"/>
+      <c r="E381" s="10"/>
       <c r="F381" s="8"/>
       <c r="G381" s="8"/>
       <c r="H381" s="8"/>
@@ -44329,7 +44335,7 @@
       <c r="B382" s="8"/>
       <c r="C382" s="8"/>
       <c r="D382" s="8"/>
-      <c r="E382" s="8"/>
+      <c r="E382" s="10"/>
       <c r="F382" s="8"/>
       <c r="G382" s="8"/>
       <c r="H382" s="8"/>
@@ -44356,7 +44362,7 @@
       <c r="B383" s="8"/>
       <c r="C383" s="8"/>
       <c r="D383" s="8"/>
-      <c r="E383" s="8"/>
+      <c r="E383" s="10"/>
       <c r="F383" s="8"/>
       <c r="G383" s="8"/>
       <c r="H383" s="8"/>
@@ -44383,7 +44389,7 @@
       <c r="B384" s="8"/>
       <c r="C384" s="8"/>
       <c r="D384" s="8"/>
-      <c r="E384" s="8"/>
+      <c r="E384" s="10"/>
       <c r="F384" s="8"/>
       <c r="G384" s="8"/>
       <c r="H384" s="8"/>
@@ -44410,7 +44416,7 @@
       <c r="B385" s="8"/>
       <c r="C385" s="8"/>
       <c r="D385" s="8"/>
-      <c r="E385" s="8"/>
+      <c r="E385" s="10"/>
       <c r="F385" s="8"/>
       <c r="G385" s="8"/>
       <c r="H385" s="8"/>
@@ -44437,7 +44443,7 @@
       <c r="B386" s="8"/>
       <c r="C386" s="8"/>
       <c r="D386" s="8"/>
-      <c r="E386" s="8"/>
+      <c r="E386" s="10"/>
       <c r="F386" s="8"/>
       <c r="G386" s="8"/>
       <c r="H386" s="8"/>
@@ -44464,7 +44470,7 @@
       <c r="B387" s="8"/>
       <c r="C387" s="8"/>
       <c r="D387" s="8"/>
-      <c r="E387" s="8"/>
+      <c r="E387" s="10"/>
       <c r="F387" s="8"/>
       <c r="G387" s="8"/>
       <c r="H387" s="8"/>
@@ -44491,7 +44497,7 @@
       <c r="B388" s="8"/>
       <c r="C388" s="8"/>
       <c r="D388" s="8"/>
-      <c r="E388" s="8"/>
+      <c r="E388" s="10"/>
       <c r="F388" s="8"/>
       <c r="G388" s="8"/>
       <c r="H388" s="8"/>
@@ -44518,7 +44524,7 @@
       <c r="B389" s="8"/>
       <c r="C389" s="8"/>
       <c r="D389" s="8"/>
-      <c r="E389" s="8"/>
+      <c r="E389" s="10"/>
       <c r="F389" s="8"/>
       <c r="G389" s="8"/>
       <c r="H389" s="8"/>
@@ -44545,7 +44551,7 @@
       <c r="B390" s="8"/>
       <c r="C390" s="8"/>
       <c r="D390" s="8"/>
-      <c r="E390" s="8"/>
+      <c r="E390" s="10"/>
       <c r="F390" s="8"/>
       <c r="G390" s="8"/>
       <c r="H390" s="8"/>
@@ -44572,7 +44578,7 @@
       <c r="B391" s="8"/>
       <c r="C391" s="8"/>
       <c r="D391" s="8"/>
-      <c r="E391" s="8"/>
+      <c r="E391" s="10"/>
       <c r="F391" s="8"/>
       <c r="G391" s="8"/>
       <c r="H391" s="8"/>
@@ -44599,7 +44605,7 @@
       <c r="B392" s="8"/>
       <c r="C392" s="8"/>
       <c r="D392" s="8"/>
-      <c r="E392" s="8"/>
+      <c r="E392" s="10"/>
       <c r="F392" s="8"/>
       <c r="G392" s="8"/>
       <c r="H392" s="8"/>
@@ -44626,7 +44632,7 @@
       <c r="B393" s="8"/>
       <c r="C393" s="8"/>
       <c r="D393" s="8"/>
-      <c r="E393" s="8"/>
+      <c r="E393" s="10"/>
       <c r="F393" s="8"/>
       <c r="G393" s="8"/>
       <c r="H393" s="8"/>
@@ -44653,7 +44659,7 @@
       <c r="B394" s="8"/>
       <c r="C394" s="8"/>
       <c r="D394" s="8"/>
-      <c r="E394" s="8"/>
+      <c r="E394" s="10"/>
       <c r="F394" s="8"/>
       <c r="G394" s="8"/>
       <c r="H394" s="8"/>
@@ -44680,7 +44686,7 @@
       <c r="B395" s="8"/>
       <c r="C395" s="8"/>
       <c r="D395" s="8"/>
-      <c r="E395" s="8"/>
+      <c r="E395" s="10"/>
       <c r="F395" s="8"/>
       <c r="G395" s="8"/>
       <c r="H395" s="8"/>
@@ -44707,7 +44713,7 @@
       <c r="B396" s="8"/>
       <c r="C396" s="8"/>
       <c r="D396" s="8"/>
-      <c r="E396" s="8"/>
+      <c r="E396" s="10"/>
       <c r="F396" s="8"/>
       <c r="G396" s="8"/>
       <c r="H396" s="8"/>
@@ -44734,7 +44740,7 @@
       <c r="B397" s="8"/>
       <c r="C397" s="8"/>
       <c r="D397" s="8"/>
-      <c r="E397" s="8"/>
+      <c r="E397" s="10"/>
       <c r="F397" s="8"/>
       <c r="G397" s="8"/>
       <c r="H397" s="8"/>
@@ -44761,7 +44767,7 @@
       <c r="B398" s="8"/>
       <c r="C398" s="8"/>
       <c r="D398" s="8"/>
-      <c r="E398" s="8"/>
+      <c r="E398" s="10"/>
       <c r="F398" s="8"/>
       <c r="G398" s="8"/>
       <c r="H398" s="8"/>
@@ -44788,7 +44794,7 @@
       <c r="B399" s="8"/>
       <c r="C399" s="8"/>
       <c r="D399" s="8"/>
-      <c r="E399" s="8"/>
+      <c r="E399" s="10"/>
       <c r="F399" s="8"/>
       <c r="G399" s="8"/>
       <c r="H399" s="8"/>
@@ -44815,7 +44821,7 @@
       <c r="B400" s="8"/>
       <c r="C400" s="8"/>
       <c r="D400" s="8"/>
-      <c r="E400" s="8"/>
+      <c r="E400" s="10"/>
       <c r="F400" s="8"/>
       <c r="G400" s="8"/>
       <c r="H400" s="8"/>
@@ -44842,7 +44848,7 @@
       <c r="B401" s="8"/>
       <c r="C401" s="8"/>
       <c r="D401" s="8"/>
-      <c r="E401" s="8"/>
+      <c r="E401" s="10"/>
       <c r="F401" s="8"/>
       <c r="G401" s="8"/>
       <c r="H401" s="8"/>
@@ -44869,7 +44875,7 @@
       <c r="B402" s="8"/>
       <c r="C402" s="8"/>
       <c r="D402" s="8"/>
-      <c r="E402" s="8"/>
+      <c r="E402" s="10"/>
       <c r="F402" s="8"/>
       <c r="G402" s="8"/>
       <c r="H402" s="8"/>
@@ -44896,7 +44902,7 @@
       <c r="B403" s="8"/>
       <c r="C403" s="8"/>
       <c r="D403" s="8"/>
-      <c r="E403" s="8"/>
+      <c r="E403" s="10"/>
       <c r="F403" s="8"/>
       <c r="G403" s="8"/>
       <c r="H403" s="8"/>
@@ -44923,7 +44929,7 @@
       <c r="B404" s="8"/>
       <c r="C404" s="8"/>
       <c r="D404" s="8"/>
-      <c r="E404" s="8"/>
+      <c r="E404" s="10"/>
       <c r="F404" s="8"/>
       <c r="G404" s="8"/>
       <c r="H404" s="8"/>
@@ -44950,7 +44956,7 @@
       <c r="B405" s="8"/>
       <c r="C405" s="8"/>
       <c r="D405" s="8"/>
-      <c r="E405" s="8"/>
+      <c r="E405" s="10"/>
       <c r="F405" s="8"/>
       <c r="G405" s="8"/>
       <c r="H405" s="8"/>
@@ -44977,7 +44983,7 @@
       <c r="B406" s="8"/>
       <c r="C406" s="8"/>
       <c r="D406" s="8"/>
-      <c r="E406" s="8"/>
+      <c r="E406" s="10"/>
       <c r="F406" s="8"/>
       <c r="G406" s="8"/>
       <c r="H406" s="8"/>
@@ -45004,7 +45010,7 @@
       <c r="B407" s="8"/>
       <c r="C407" s="8"/>
       <c r="D407" s="8"/>
-      <c r="E407" s="8"/>
+      <c r="E407" s="10"/>
       <c r="F407" s="8"/>
       <c r="G407" s="8"/>
       <c r="H407" s="8"/>
@@ -45031,7 +45037,7 @@
       <c r="B408" s="8"/>
       <c r="C408" s="8"/>
       <c r="D408" s="8"/>
-      <c r="E408" s="8"/>
+      <c r="E408" s="10"/>
       <c r="F408" s="8"/>
       <c r="G408" s="8"/>
       <c r="H408" s="8"/>
@@ -45058,7 +45064,7 @@
       <c r="B409" s="8"/>
       <c r="C409" s="8"/>
       <c r="D409" s="8"/>
-      <c r="E409" s="8"/>
+      <c r="E409" s="10"/>
       <c r="F409" s="8"/>
       <c r="G409" s="8"/>
       <c r="H409" s="8"/>
@@ -45085,7 +45091,7 @@
       <c r="B410" s="8"/>
       <c r="C410" s="8"/>
       <c r="D410" s="8"/>
-      <c r="E410" s="8"/>
+      <c r="E410" s="10"/>
       <c r="F410" s="8"/>
       <c r="G410" s="8"/>
       <c r="H410" s="8"/>
@@ -45112,7 +45118,7 @@
       <c r="B411" s="8"/>
       <c r="C411" s="8"/>
       <c r="D411" s="8"/>
-      <c r="E411" s="8"/>
+      <c r="E411" s="10"/>
       <c r="F411" s="8"/>
       <c r="G411" s="8"/>
       <c r="H411" s="8"/>
@@ -45139,7 +45145,7 @@
       <c r="B412" s="8"/>
       <c r="C412" s="8"/>
       <c r="D412" s="8"/>
-      <c r="E412" s="8"/>
+      <c r="E412" s="10"/>
       <c r="F412" s="8"/>
       <c r="G412" s="8"/>
       <c r="H412" s="8"/>
@@ -45166,7 +45172,7 @@
       <c r="B413" s="8"/>
       <c r="C413" s="8"/>
       <c r="D413" s="8"/>
-      <c r="E413" s="8"/>
+      <c r="E413" s="10"/>
       <c r="F413" s="8"/>
       <c r="G413" s="8"/>
       <c r="H413" s="8"/>
@@ -45193,7 +45199,7 @@
       <c r="B414" s="8"/>
       <c r="C414" s="8"/>
       <c r="D414" s="8"/>
-      <c r="E414" s="8"/>
+      <c r="E414" s="10"/>
       <c r="F414" s="8"/>
       <c r="G414" s="8"/>
       <c r="H414" s="8"/>
@@ -45220,7 +45226,7 @@
       <c r="B415" s="8"/>
       <c r="C415" s="8"/>
       <c r="D415" s="8"/>
-      <c r="E415" s="8"/>
+      <c r="E415" s="10"/>
       <c r="F415" s="8"/>
       <c r="G415" s="8"/>
       <c r="H415" s="8"/>
@@ -45247,7 +45253,7 @@
       <c r="B416" s="8"/>
       <c r="C416" s="8"/>
       <c r="D416" s="8"/>
-      <c r="E416" s="8"/>
+      <c r="E416" s="10"/>
       <c r="F416" s="8"/>
       <c r="G416" s="8"/>
       <c r="H416" s="8"/>
@@ -45274,7 +45280,7 @@
       <c r="B417" s="8"/>
       <c r="C417" s="8"/>
       <c r="D417" s="8"/>
-      <c r="E417" s="8"/>
+      <c r="E417" s="10"/>
       <c r="F417" s="8"/>
       <c r="G417" s="8"/>
       <c r="H417" s="8"/>
@@ -45301,7 +45307,7 @@
       <c r="B418" s="8"/>
       <c r="C418" s="8"/>
       <c r="D418" s="8"/>
-      <c r="E418" s="8"/>
+      <c r="E418" s="10"/>
       <c r="F418" s="8"/>
       <c r="G418" s="8"/>
       <c r="H418" s="8"/>
@@ -45328,7 +45334,7 @@
       <c r="B419" s="8"/>
       <c r="C419" s="8"/>
       <c r="D419" s="8"/>
-      <c r="E419" s="8"/>
+      <c r="E419" s="10"/>
       <c r="F419" s="8"/>
       <c r="G419" s="8"/>
       <c r="H419" s="8"/>
@@ -45355,7 +45361,7 @@
       <c r="B420" s="8"/>
       <c r="C420" s="8"/>
       <c r="D420" s="8"/>
-      <c r="E420" s="8"/>
+      <c r="E420" s="10"/>
       <c r="F420" s="8"/>
       <c r="G420" s="8"/>
       <c r="H420" s="8"/>
@@ -45382,7 +45388,7 @@
       <c r="B421" s="8"/>
       <c r="C421" s="8"/>
       <c r="D421" s="8"/>
-      <c r="E421" s="8"/>
+      <c r="E421" s="10"/>
       <c r="F421" s="8"/>
       <c r="G421" s="8"/>
       <c r="H421" s="8"/>
@@ -45409,7 +45415,7 @@
       <c r="B422" s="8"/>
       <c r="C422" s="8"/>
       <c r="D422" s="8"/>
-      <c r="E422" s="8"/>
+      <c r="E422" s="10"/>
       <c r="F422" s="8"/>
       <c r="G422" s="8"/>
       <c r="H422" s="8"/>
@@ -45436,7 +45442,7 @@
       <c r="B423" s="8"/>
       <c r="C423" s="8"/>
       <c r="D423" s="8"/>
-      <c r="E423" s="8"/>
+      <c r="E423" s="10"/>
       <c r="F423" s="8"/>
       <c r="G423" s="8"/>
       <c r="H423" s="8"/>
@@ -45463,7 +45469,7 @@
       <c r="B424" s="8"/>
       <c r="C424" s="8"/>
       <c r="D424" s="8"/>
-      <c r="E424" s="8"/>
+      <c r="E424" s="10"/>
       <c r="F424" s="8"/>
       <c r="G424" s="8"/>
       <c r="H424" s="8"/>
@@ -45490,7 +45496,7 @@
       <c r="B425" s="8"/>
       <c r="C425" s="8"/>
       <c r="D425" s="8"/>
-      <c r="E425" s="8"/>
+      <c r="E425" s="10"/>
       <c r="F425" s="8"/>
       <c r="G425" s="8"/>
       <c r="H425" s="8"/>
@@ -45517,7 +45523,7 @@
       <c r="B426" s="8"/>
       <c r="C426" s="8"/>
       <c r="D426" s="8"/>
-      <c r="E426" s="8"/>
+      <c r="E426" s="10"/>
       <c r="F426" s="8"/>
       <c r="G426" s="8"/>
       <c r="H426" s="8"/>
@@ -45544,7 +45550,7 @@
       <c r="B427" s="8"/>
       <c r="C427" s="8"/>
       <c r="D427" s="8"/>
-      <c r="E427" s="8"/>
+      <c r="E427" s="10"/>
       <c r="F427" s="8"/>
       <c r="G427" s="8"/>
       <c r="H427" s="8"/>
@@ -45571,7 +45577,7 @@
       <c r="B428" s="8"/>
       <c r="C428" s="8"/>
       <c r="D428" s="8"/>
-      <c r="E428" s="8"/>
+      <c r="E428" s="10"/>
       <c r="F428" s="8"/>
       <c r="G428" s="8"/>
       <c r="H428" s="8"/>
@@ -45598,7 +45604,7 @@
       <c r="B429" s="8"/>
       <c r="C429" s="8"/>
       <c r="D429" s="8"/>
-      <c r="E429" s="8"/>
+      <c r="E429" s="10"/>
       <c r="F429" s="8"/>
       <c r="G429" s="8"/>
       <c r="H429" s="8"/>
@@ -45625,7 +45631,7 @@
       <c r="B430" s="8"/>
       <c r="C430" s="8"/>
       <c r="D430" s="8"/>
-      <c r="E430" s="8"/>
+      <c r="E430" s="10"/>
       <c r="F430" s="8"/>
       <c r="G430" s="8"/>
       <c r="H430" s="8"/>
@@ -45652,7 +45658,7 @@
       <c r="B431" s="8"/>
       <c r="C431" s="8"/>
       <c r="D431" s="8"/>
-      <c r="E431" s="8"/>
+      <c r="E431" s="10"/>
       <c r="F431" s="8"/>
       <c r="G431" s="8"/>
       <c r="H431" s="8"/>
@@ -45679,7 +45685,7 @@
       <c r="B432" s="8"/>
       <c r="C432" s="8"/>
       <c r="D432" s="8"/>
-      <c r="E432" s="8"/>
+      <c r="E432" s="10"/>
       <c r="F432" s="8"/>
       <c r="G432" s="8"/>
       <c r="H432" s="8"/>
@@ -45706,7 +45712,7 @@
       <c r="B433" s="8"/>
       <c r="C433" s="8"/>
       <c r="D433" s="8"/>
-      <c r="E433" s="8"/>
+      <c r="E433" s="10"/>
       <c r="F433" s="8"/>
       <c r="G433" s="8"/>
       <c r="H433" s="8"/>
@@ -45733,7 +45739,7 @@
       <c r="B434" s="8"/>
       <c r="C434" s="8"/>
       <c r="D434" s="8"/>
-      <c r="E434" s="8"/>
+      <c r="E434" s="10"/>
       <c r="F434" s="8"/>
       <c r="G434" s="8"/>
       <c r="H434" s="8"/>
@@ -45760,7 +45766,7 @@
       <c r="B435" s="8"/>
       <c r="C435" s="8"/>
       <c r="D435" s="8"/>
-      <c r="E435" s="8"/>
+      <c r="E435" s="10"/>
       <c r="F435" s="8"/>
       <c r="G435" s="8"/>
       <c r="H435" s="8"/>
@@ -45787,7 +45793,7 @@
       <c r="B436" s="8"/>
       <c r="C436" s="8"/>
       <c r="D436" s="8"/>
-      <c r="E436" s="8"/>
+      <c r="E436" s="10"/>
       <c r="F436" s="8"/>
       <c r="G436" s="8"/>
       <c r="H436" s="8"/>
@@ -45814,7 +45820,7 @@
       <c r="B437" s="8"/>
       <c r="C437" s="8"/>
       <c r="D437" s="8"/>
-      <c r="E437" s="8"/>
+      <c r="E437" s="10"/>
       <c r="F437" s="8"/>
       <c r="G437" s="8"/>
       <c r="H437" s="8"/>
@@ -45841,7 +45847,7 @@
       <c r="B438" s="8"/>
       <c r="C438" s="8"/>
       <c r="D438" s="8"/>
-      <c r="E438" s="8"/>
+      <c r="E438" s="10"/>
       <c r="F438" s="8"/>
       <c r="G438" s="8"/>
       <c r="H438" s="8"/>
@@ -45868,7 +45874,7 @@
       <c r="B439" s="8"/>
       <c r="C439" s="8"/>
       <c r="D439" s="8"/>
-      <c r="E439" s="8"/>
+      <c r="E439" s="10"/>
       <c r="F439" s="8"/>
       <c r="G439" s="8"/>
       <c r="H439" s="8"/>
@@ -45895,7 +45901,7 @@
       <c r="B440" s="8"/>
       <c r="C440" s="8"/>
       <c r="D440" s="8"/>
-      <c r="E440" s="8"/>
+      <c r="E440" s="10"/>
       <c r="F440" s="8"/>
       <c r="G440" s="8"/>
       <c r="H440" s="8"/>
@@ -45922,7 +45928,7 @@
       <c r="B441" s="8"/>
       <c r="C441" s="8"/>
       <c r="D441" s="8"/>
-      <c r="E441" s="8"/>
+      <c r="E441" s="10"/>
       <c r="F441" s="8"/>
       <c r="G441" s="8"/>
       <c r="H441" s="8"/>
@@ -45949,7 +45955,7 @@
       <c r="B442" s="8"/>
       <c r="C442" s="8"/>
       <c r="D442" s="8"/>
-      <c r="E442" s="8"/>
+      <c r="E442" s="10"/>
       <c r="F442" s="8"/>
       <c r="G442" s="8"/>
       <c r="H442" s="8"/>
@@ -45976,7 +45982,7 @@
       <c r="B443" s="8"/>
       <c r="C443" s="8"/>
       <c r="D443" s="8"/>
-      <c r="E443" s="8"/>
+      <c r="E443" s="10"/>
       <c r="F443" s="8"/>
       <c r="G443" s="8"/>
       <c r="H443" s="8"/>
@@ -46003,7 +46009,7 @@
       <c r="B444" s="8"/>
       <c r="C444" s="8"/>
       <c r="D444" s="8"/>
-      <c r="E444" s="8"/>
+      <c r="E444" s="10"/>
       <c r="F444" s="8"/>
       <c r="G444" s="8"/>
       <c r="H444" s="8"/>
@@ -46030,7 +46036,7 @@
       <c r="B445" s="8"/>
       <c r="C445" s="8"/>
       <c r="D445" s="8"/>
-      <c r="E445" s="8"/>
+      <c r="E445" s="10"/>
       <c r="F445" s="8"/>
       <c r="G445" s="8"/>
       <c r="H445" s="8"/>
@@ -46057,7 +46063,7 @@
       <c r="B446" s="8"/>
       <c r="C446" s="8"/>
       <c r="D446" s="8"/>
-      <c r="E446" s="8"/>
+      <c r="E446" s="10"/>
       <c r="F446" s="8"/>
       <c r="G446" s="8"/>
       <c r="H446" s="8"/>
@@ -46084,7 +46090,7 @@
       <c r="B447" s="8"/>
       <c r="C447" s="8"/>
       <c r="D447" s="8"/>
-      <c r="E447" s="8"/>
+      <c r="E447" s="10"/>
       <c r="F447" s="8"/>
       <c r="G447" s="8"/>
       <c r="H447" s="8"/>
@@ -46111,7 +46117,7 @@
       <c r="B448" s="8"/>
       <c r="C448" s="8"/>
       <c r="D448" s="8"/>
-      <c r="E448" s="8"/>
+      <c r="E448" s="10"/>
       <c r="F448" s="8"/>
       <c r="G448" s="8"/>
       <c r="H448" s="8"/>
@@ -46138,7 +46144,7 @@
       <c r="B449" s="8"/>
       <c r="C449" s="8"/>
       <c r="D449" s="8"/>
-      <c r="E449" s="8"/>
+      <c r="E449" s="10"/>
       <c r="F449" s="8"/>
       <c r="G449" s="8"/>
       <c r="H449" s="8"/>
@@ -46165,7 +46171,7 @@
       <c r="B450" s="8"/>
       <c r="C450" s="8"/>
       <c r="D450" s="8"/>
-      <c r="E450" s="8"/>
+      <c r="E450" s="10"/>
       <c r="F450" s="8"/>
       <c r="G450" s="8"/>
       <c r="H450" s="8"/>
@@ -46192,7 +46198,7 @@
       <c r="B451" s="8"/>
       <c r="C451" s="8"/>
       <c r="D451" s="8"/>
-      <c r="E451" s="8"/>
+      <c r="E451" s="10"/>
       <c r="F451" s="8"/>
       <c r="G451" s="8"/>
       <c r="H451" s="8"/>
@@ -46219,7 +46225,7 @@
       <c r="B452" s="8"/>
       <c r="C452" s="8"/>
       <c r="D452" s="8"/>
-      <c r="E452" s="8"/>
+      <c r="E452" s="10"/>
       <c r="F452" s="8"/>
       <c r="G452" s="8"/>
       <c r="H452" s="8"/>
@@ -46246,7 +46252,7 @@
       <c r="B453" s="8"/>
       <c r="C453" s="8"/>
       <c r="D453" s="8"/>
-      <c r="E453" s="8"/>
+      <c r="E453" s="10"/>
       <c r="F453" s="8"/>
       <c r="G453" s="8"/>
       <c r="H453" s="8"/>
@@ -46273,7 +46279,7 @@
       <c r="B454" s="8"/>
       <c r="C454" s="8"/>
       <c r="D454" s="8"/>
-      <c r="E454" s="8"/>
+      <c r="E454" s="10"/>
       <c r="F454" s="8"/>
       <c r="G454" s="8"/>
       <c r="H454" s="8"/>
@@ -46300,7 +46306,7 @@
       <c r="B455" s="8"/>
       <c r="C455" s="8"/>
       <c r="D455" s="8"/>
-      <c r="E455" s="8"/>
+      <c r="E455" s="10"/>
       <c r="F455" s="8"/>
       <c r="G455" s="8"/>
       <c r="H455" s="8"/>
@@ -46327,7 +46333,7 @@
       <c r="B456" s="8"/>
       <c r="C456" s="8"/>
       <c r="D456" s="8"/>
-      <c r="E456" s="8"/>
+      <c r="E456" s="10"/>
       <c r="F456" s="8"/>
       <c r="G456" s="8"/>
       <c r="H456" s="8"/>
@@ -46354,7 +46360,7 @@
       <c r="B457" s="8"/>
       <c r="C457" s="8"/>
       <c r="D457" s="8"/>
-      <c r="E457" s="8"/>
+      <c r="E457" s="10"/>
       <c r="F457" s="8"/>
       <c r="G457" s="8"/>
       <c r="H457" s="8"/>
@@ -46381,7 +46387,7 @@
       <c r="B458" s="8"/>
       <c r="C458" s="8"/>
       <c r="D458" s="8"/>
-      <c r="E458" s="8"/>
+      <c r="E458" s="10"/>
       <c r="F458" s="8"/>
       <c r="G458" s="8"/>
       <c r="H458" s="8"/>
@@ -46408,7 +46414,7 @@
       <c r="B459" s="8"/>
       <c r="C459" s="8"/>
       <c r="D459" s="8"/>
-      <c r="E459" s="8"/>
+      <c r="E459" s="10"/>
       <c r="F459" s="8"/>
       <c r="G459" s="8"/>
       <c r="H459" s="8"/>
@@ -46435,7 +46441,7 @@
       <c r="B460" s="8"/>
       <c r="C460" s="8"/>
       <c r="D460" s="8"/>
-      <c r="E460" s="8"/>
+      <c r="E460" s="10"/>
       <c r="F460" s="8"/>
       <c r="G460" s="8"/>
       <c r="H460" s="8"/>
@@ -46462,7 +46468,7 @@
       <c r="B461" s="8"/>
       <c r="C461" s="8"/>
       <c r="D461" s="8"/>
-      <c r="E461" s="8"/>
+      <c r="E461" s="10"/>
       <c r="F461" s="8"/>
       <c r="G461" s="8"/>
       <c r="H461" s="8"/>
@@ -46489,7 +46495,7 @@
       <c r="B462" s="8"/>
       <c r="C462" s="8"/>
       <c r="D462" s="8"/>
-      <c r="E462" s="8"/>
+      <c r="E462" s="10"/>
       <c r="F462" s="8"/>
       <c r="G462" s="8"/>
       <c r="H462" s="8"/>
@@ -46516,7 +46522,7 @@
       <c r="B463" s="8"/>
       <c r="C463" s="8"/>
       <c r="D463" s="8"/>
-      <c r="E463" s="8"/>
+      <c r="E463" s="10"/>
       <c r="F463" s="8"/>
       <c r="G463" s="8"/>
       <c r="H463" s="8"/>
@@ -46543,7 +46549,7 @@
       <c r="B464" s="8"/>
       <c r="C464" s="8"/>
       <c r="D464" s="8"/>
-      <c r="E464" s="8"/>
+      <c r="E464" s="10"/>
       <c r="F464" s="8"/>
       <c r="G464" s="8"/>
       <c r="H464" s="8"/>
@@ -46570,7 +46576,7 @@
       <c r="B465" s="8"/>
       <c r="C465" s="8"/>
       <c r="D465" s="8"/>
-      <c r="E465" s="8"/>
+      <c r="E465" s="10"/>
       <c r="F465" s="8"/>
       <c r="G465" s="8"/>
       <c r="H465" s="8"/>
@@ -46597,7 +46603,7 @@
       <c r="B466" s="8"/>
       <c r="C466" s="8"/>
       <c r="D466" s="8"/>
-      <c r="E466" s="8"/>
+      <c r="E466" s="10"/>
       <c r="F466" s="8"/>
       <c r="G466" s="8"/>
       <c r="H466" s="8"/>
@@ -46624,7 +46630,7 @@
       <c r="B467" s="8"/>
       <c r="C467" s="8"/>
       <c r="D467" s="8"/>
-      <c r="E467" s="8"/>
+      <c r="E467" s="10"/>
       <c r="F467" s="8"/>
       <c r="G467" s="8"/>
       <c r="H467" s="8"/>
@@ -46651,7 +46657,7 @@
       <c r="B468" s="8"/>
       <c r="C468" s="8"/>
       <c r="D468" s="8"/>
-      <c r="E468" s="8"/>
+      <c r="E468" s="10"/>
       <c r="F468" s="8"/>
       <c r="G468" s="8"/>
       <c r="H468" s="8"/>
@@ -46678,7 +46684,7 @@
       <c r="B469" s="8"/>
       <c r="C469" s="8"/>
       <c r="D469" s="8"/>
-      <c r="E469" s="8"/>
+      <c r="E469" s="10"/>
       <c r="F469" s="8"/>
       <c r="G469" s="8"/>
       <c r="H469" s="8"/>
@@ -46705,7 +46711,7 @@
       <c r="B470" s="8"/>
       <c r="C470" s="8"/>
       <c r="D470" s="8"/>
-      <c r="E470" s="8"/>
+      <c r="E470" s="10"/>
       <c r="F470" s="8"/>
       <c r="G470" s="8"/>
       <c r="H470" s="8"/>
@@ -46732,7 +46738,7 @@
       <c r="B471" s="8"/>
       <c r="C471" s="8"/>
       <c r="D471" s="8"/>
-      <c r="E471" s="8"/>
+      <c r="E471" s="10"/>
       <c r="F471" s="8"/>
       <c r="G471" s="8"/>
       <c r="H471" s="8"/>
@@ -46759,7 +46765,7 @@
       <c r="B472" s="8"/>
       <c r="C472" s="8"/>
       <c r="D472" s="8"/>
-      <c r="E472" s="8"/>
+      <c r="E472" s="10"/>
       <c r="F472" s="8"/>
       <c r="G472" s="8"/>
       <c r="H472" s="8"/>
@@ -46786,7 +46792,7 @@
       <c r="B473" s="8"/>
       <c r="C473" s="8"/>
       <c r="D473" s="8"/>
-      <c r="E473" s="8"/>
+      <c r="E473" s="10"/>
       <c r="F473" s="8"/>
       <c r="G473" s="8"/>
       <c r="H473" s="8"/>
@@ -46813,7 +46819,7 @@
       <c r="B474" s="8"/>
       <c r="C474" s="8"/>
       <c r="D474" s="8"/>
-      <c r="E474" s="8"/>
+      <c r="E474" s="10"/>
       <c r="F474" s="8"/>
       <c r="G474" s="8"/>
       <c r="H474" s="8"/>
@@ -46840,7 +46846,7 @@
       <c r="B475" s="8"/>
       <c r="C475" s="8"/>
       <c r="D475" s="8"/>
-      <c r="E475" s="8"/>
+      <c r="E475" s="10"/>
       <c r="F475" s="8"/>
       <c r="G475" s="8"/>
       <c r="H475" s="8"/>
@@ -46867,7 +46873,7 @@
       <c r="B476" s="8"/>
       <c r="C476" s="8"/>
       <c r="D476" s="8"/>
-      <c r="E476" s="8"/>
+      <c r="E476" s="10"/>
       <c r="F476" s="8"/>
       <c r="G476" s="8"/>
       <c r="H476" s="8"/>
@@ -46894,7 +46900,7 @@
       <c r="B477" s="8"/>
       <c r="C477" s="8"/>
       <c r="D477" s="8"/>
-      <c r="E477" s="8"/>
+      <c r="E477" s="10"/>
       <c r="F477" s="8"/>
       <c r="G477" s="8"/>
       <c r="H477" s="8"/>
@@ -46921,7 +46927,7 @@
       <c r="B478" s="8"/>
       <c r="C478" s="8"/>
       <c r="D478" s="8"/>
-      <c r="E478" s="8"/>
+      <c r="E478" s="10"/>
       <c r="F478" s="8"/>
       <c r="G478" s="8"/>
       <c r="H478" s="8"/>
@@ -46948,7 +46954,7 @@
       <c r="B479" s="8"/>
       <c r="C479" s="8"/>
       <c r="D479" s="8"/>
-      <c r="E479" s="8"/>
+      <c r="E479" s="10"/>
       <c r="F479" s="8"/>
       <c r="G479" s="8"/>
       <c r="H479" s="8"/>
@@ -46975,7 +46981,7 @@
       <c r="B480" s="8"/>
       <c r="C480" s="8"/>
       <c r="D480" s="8"/>
-      <c r="E480" s="8"/>
+      <c r="E480" s="10"/>
       <c r="F480" s="8"/>
       <c r="G480" s="8"/>
       <c r="H480" s="8"/>
@@ -47002,7 +47008,7 @@
       <c r="B481" s="8"/>
       <c r="C481" s="8"/>
       <c r="D481" s="8"/>
-      <c r="E481" s="8"/>
+      <c r="E481" s="10"/>
       <c r="F481" s="8"/>
       <c r="G481" s="8"/>
       <c r="H481" s="8"/>
@@ -47029,7 +47035,7 @@
       <c r="B482" s="8"/>
       <c r="C482" s="8"/>
       <c r="D482" s="8"/>
-      <c r="E482" s="8"/>
+      <c r="E482" s="10"/>
       <c r="F482" s="8"/>
       <c r="G482" s="8"/>
       <c r="H482" s="8"/>
@@ -47056,7 +47062,7 @@
       <c r="B483" s="8"/>
       <c r="C483" s="8"/>
       <c r="D483" s="8"/>
-      <c r="E483" s="8"/>
+      <c r="E483" s="10"/>
       <c r="F483" s="8"/>
       <c r="G483" s="8"/>
       <c r="H483" s="8"/>
@@ -47083,7 +47089,7 @@
       <c r="B484" s="8"/>
       <c r="C484" s="8"/>
       <c r="D484" s="8"/>
-      <c r="E484" s="8"/>
+      <c r="E484" s="10"/>
       <c r="F484" s="8"/>
       <c r="G484" s="8"/>
       <c r="H484" s="8"/>
@@ -47110,7 +47116,7 @@
       <c r="B485" s="8"/>
       <c r="C485" s="8"/>
       <c r="D485" s="8"/>
-      <c r="E485" s="8"/>
+      <c r="E485" s="10"/>
       <c r="F485" s="8"/>
       <c r="G485" s="8"/>
       <c r="H485" s="8"/>
@@ -47137,7 +47143,7 @@
       <c r="B486" s="8"/>
       <c r="C486" s="8"/>
       <c r="D486" s="8"/>
-      <c r="E486" s="8"/>
+      <c r="E486" s="10"/>
       <c r="F486" s="8"/>
       <c r="G486" s="8"/>
       <c r="H486" s="8"/>
@@ -47164,7 +47170,7 @@
       <c r="B487" s="8"/>
       <c r="C487" s="8"/>
       <c r="D487" s="8"/>
-      <c r="E487" s="8"/>
+      <c r="E487" s="10"/>
       <c r="F487" s="8"/>
       <c r="G487" s="8"/>
       <c r="H487" s="8"/>
@@ -47191,7 +47197,7 @@
       <c r="B488" s="8"/>
       <c r="C488" s="8"/>
       <c r="D488" s="8"/>
-      <c r="E488" s="8"/>
+      <c r="E488" s="10"/>
       <c r="F488" s="8"/>
       <c r="G488" s="8"/>
       <c r="H488" s="8"/>
@@ -47218,7 +47224,7 @@
       <c r="B489" s="8"/>
       <c r="C489" s="8"/>
       <c r="D489" s="8"/>
-      <c r="E489" s="8"/>
+      <c r="E489" s="10"/>
       <c r="F489" s="8"/>
       <c r="G489" s="8"/>
       <c r="H489" s="8"/>
@@ -47245,7 +47251,7 @@
       <c r="B490" s="8"/>
       <c r="C490" s="8"/>
       <c r="D490" s="8"/>
-      <c r="E490" s="8"/>
+      <c r="E490" s="10"/>
       <c r="F490" s="8"/>
       <c r="G490" s="8"/>
       <c r="H490" s="8"/>
@@ -47272,7 +47278,7 @@
       <c r="B491" s="8"/>
       <c r="C491" s="8"/>
       <c r="D491" s="8"/>
-      <c r="E491" s="8"/>
+      <c r="E491" s="10"/>
       <c r="F491" s="8"/>
       <c r="G491" s="8"/>
       <c r="H491" s="8"/>
@@ -47299,7 +47305,7 @@
       <c r="B492" s="8"/>
       <c r="C492" s="8"/>
       <c r="D492" s="8"/>
-      <c r="E492" s="8"/>
+      <c r="E492" s="10"/>
       <c r="F492" s="8"/>
       <c r="G492" s="8"/>
       <c r="H492" s="8"/>
@@ -47326,7 +47332,7 @@
       <c r="B493" s="8"/>
       <c r="C493" s="8"/>
       <c r="D493" s="8"/>
-      <c r="E493" s="8"/>
+      <c r="E493" s="10"/>
       <c r="F493" s="8"/>
       <c r="G493" s="8"/>
       <c r="H493" s="8"/>
@@ -47353,7 +47359,7 @@
       <c r="B494" s="8"/>
       <c r="C494" s="8"/>
       <c r="D494" s="8"/>
-      <c r="E494" s="8"/>
+      <c r="E494" s="10"/>
       <c r="F494" s="8"/>
       <c r="G494" s="8"/>
       <c r="H494" s="8"/>
@@ -47380,7 +47386,7 @@
       <c r="B495" s="8"/>
       <c r="C495" s="8"/>
       <c r="D495" s="8"/>
-      <c r="E495" s="8"/>
+      <c r="E495" s="10"/>
       <c r="F495" s="8"/>
       <c r="G495" s="8"/>
       <c r="H495" s="8"/>
@@ -47407,7 +47413,7 @@
       <c r="B496" s="8"/>
       <c r="C496" s="8"/>
       <c r="D496" s="8"/>
-      <c r="E496" s="8"/>
+      <c r="E496" s="10"/>
       <c r="F496" s="8"/>
       <c r="G496" s="8"/>
       <c r="H496" s="8"/>
@@ -47434,7 +47440,7 @@
       <c r="B497" s="8"/>
       <c r="C497" s="8"/>
       <c r="D497" s="8"/>
-      <c r="E497" s="8"/>
+      <c r="E497" s="10"/>
       <c r="F497" s="8"/>
       <c r="G497" s="8"/>
       <c r="H497" s="8"/>
@@ -47461,7 +47467,7 @@
       <c r="B498" s="8"/>
       <c r="C498" s="8"/>
       <c r="D498" s="8"/>
-      <c r="E498" s="8"/>
+      <c r="E498" s="10"/>
       <c r="F498" s="8"/>
       <c r="G498" s="8"/>
       <c r="H498" s="8"/>
@@ -47488,7 +47494,7 @@
       <c r="B499" s="8"/>
       <c r="C499" s="8"/>
       <c r="D499" s="8"/>
-      <c r="E499" s="8"/>
+      <c r="E499" s="10"/>
       <c r="F499" s="8"/>
       <c r="G499" s="8"/>
       <c r="H499" s="8"/>
@@ -47515,7 +47521,7 @@
       <c r="B500" s="8"/>
       <c r="C500" s="8"/>
       <c r="D500" s="8"/>
-      <c r="E500" s="8"/>
+      <c r="E500" s="10"/>
       <c r="F500" s="8"/>
       <c r="G500" s="8"/>
       <c r="H500" s="8"/>
@@ -47542,7 +47548,7 @@
       <c r="B501" s="8"/>
       <c r="C501" s="8"/>
       <c r="D501" s="8"/>
-      <c r="E501" s="8"/>
+      <c r="E501" s="10"/>
       <c r="F501" s="8"/>
       <c r="G501" s="8"/>
       <c r="H501" s="8"/>
@@ -47569,7 +47575,7 @@
       <c r="B502" s="8"/>
       <c r="C502" s="8"/>
       <c r="D502" s="8"/>
-      <c r="E502" s="8"/>
+      <c r="E502" s="10"/>
       <c r="F502" s="8"/>
       <c r="G502" s="8"/>
       <c r="H502" s="8"/>
@@ -47596,7 +47602,7 @@
       <c r="B503" s="8"/>
       <c r="C503" s="8"/>
       <c r="D503" s="8"/>
-      <c r="E503" s="8"/>
+      <c r="E503" s="10"/>
       <c r="F503" s="8"/>
       <c r="G503" s="8"/>
       <c r="H503" s="8"/>
@@ -47623,7 +47629,7 @@
       <c r="B504" s="8"/>
       <c r="C504" s="8"/>
       <c r="D504" s="8"/>
-      <c r="E504" s="8"/>
+      <c r="E504" s="10"/>
       <c r="F504" s="8"/>
       <c r="G504" s="8"/>
       <c r="H504" s="8"/>
@@ -47650,7 +47656,7 @@
       <c r="B505" s="8"/>
       <c r="C505" s="8"/>
       <c r="D505" s="8"/>
-      <c r="E505" s="8"/>
+      <c r="E505" s="10"/>
       <c r="F505" s="8"/>
       <c r="G505" s="8"/>
       <c r="H505" s="8"/>
